--- a/data/hotels_by_city/Dallas/Dallas_shard_567.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_567.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="209">
   <si>
     <t>STR#</t>
   </si>
@@ -145,6 +145,508 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d629349-r470058436-Motel_6_Decatur-Decatur_Alabama.html</t>
+  </si>
+  <si>
+    <t>30477</t>
+  </si>
+  <si>
+    <t>629349</t>
+  </si>
+  <si>
+    <t>470058436</t>
+  </si>
+  <si>
+    <t>03/25/2017</t>
+  </si>
+  <si>
+    <t>Worst hotel experience EVER</t>
+  </si>
+  <si>
+    <t>This place is not worth your money. Pay the extra money to stay somewhere else. I booked a nonsmoking room and there were several cigarette burns in the sheets and comforter. The telephone buttons were missing making it inoperable. The noise throughout the night was awful, so even if you just need a place to catch some sleep, you can't because you can hear everything through the paper thin walls. The management is giving a terrible reputation to Motel 6 and if I were Motel 6, I would break the franchise agreement with these owners. There was never anyone at the front desk. The lobby restroom looked like it had not been attended to in months. Avoid this hell hole. MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>This place is not worth your money. Pay the extra money to stay somewhere else. I booked a nonsmoking room and there were several cigarette burns in the sheets and comforter. The telephone buttons were missing making it inoperable. The noise throughout the night was awful, so even if you just need a place to catch some sleep, you can't because you can hear everything through the paper thin walls. The management is giving a terrible reputation to Motel 6 and if I were Motel 6, I would break the franchise agreement with these owners. There was never anyone at the front desk. The lobby restroom looked like it had not been attended to in months. Avoid this hell hole. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d629349-r398825632-Motel_6_Decatur-Decatur_Alabama.html</t>
+  </si>
+  <si>
+    <t>398825632</t>
+  </si>
+  <si>
+    <t>07/29/2016</t>
+  </si>
+  <si>
+    <t>3 bug bites later, we left</t>
+  </si>
+  <si>
+    <t>Scary doesn't even begin to describe our experience. I've traveled a lot in my life and have stayed in an assortment of hotels and there have been a few that I still shake my head about, but this was the first time I've ever requested my money back and left due to the condition of the room. First, there was something wet and sticky all over the floor and the room had a musty odor that I hoped would lessen once the air conditioner kicked in. The bed looked like it was ready to collapse in upon itself. I pulled the comforter back to inspect the sheets, and noticed the comforter had obviously not been changed in some time - it was filthy and had stains and cigarette burn holes in it (and it was a non-smoking room). When I walked into the bathroom, there was hair on the toilet seat. Within the first 10 minutes in this room, I'd been bitten by a biting fly twice and was beginning to wonder what kind of vermin would crawl on me once I sat down on the bed. Then the phone rang and someone claiming to be from management started asking to verify some personal information and wanting to know how long we were staying. We told them we'd stop back by the office and they could verify whatever they needed to then. Walked down to the front desk, the clerk...Scary doesn't even begin to describe our experience. I've traveled a lot in my life and have stayed in an assortment of hotels and there have been a few that I still shake my head about, but this was the first time I've ever requested my money back and left due to the condition of the room. First, there was something wet and sticky all over the floor and the room had a musty odor that I hoped would lessen once the air conditioner kicked in. The bed looked like it was ready to collapse in upon itself. I pulled the comforter back to inspect the sheets, and noticed the comforter had obviously not been changed in some time - it was filthy and had stains and cigarette burn holes in it (and it was a non-smoking room). When I walked into the bathroom, there was hair on the toilet seat. Within the first 10 minutes in this room, I'd been bitten by a biting fly twice and was beginning to wonder what kind of vermin would crawl on me once I sat down on the bed. Then the phone rang and someone claiming to be from management started asking to verify some personal information and wanting to know how long we were staying. We told them we'd stop back by the office and they could verify whatever they needed to then. Walked down to the front desk, the clerk asserted that no one by that name works for this hotel, pretty sure he was a scam artist looking for a score. Walked back to the room, through the smell of stale beer in the stairwells. Back inside, got bit again, killed a bug on the wall. Decided we just couldn't handle the filth, bugs and uncertainty about whether our car was going to still be in the parking lot come morning. The one positive I can say is that the clerk handled things as well as she could under the circumstances. She issued the refund quickly and made a note of the complaints. I've stayed in Motel 6 locations before that were clean and well maintained, so I know these conditions were not just because it was a budget hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Scary doesn't even begin to describe our experience. I've traveled a lot in my life and have stayed in an assortment of hotels and there have been a few that I still shake my head about, but this was the first time I've ever requested my money back and left due to the condition of the room. First, there was something wet and sticky all over the floor and the room had a musty odor that I hoped would lessen once the air conditioner kicked in. The bed looked like it was ready to collapse in upon itself. I pulled the comforter back to inspect the sheets, and noticed the comforter had obviously not been changed in some time - it was filthy and had stains and cigarette burn holes in it (and it was a non-smoking room). When I walked into the bathroom, there was hair on the toilet seat. Within the first 10 minutes in this room, I'd been bitten by a biting fly twice and was beginning to wonder what kind of vermin would crawl on me once I sat down on the bed. Then the phone rang and someone claiming to be from management started asking to verify some personal information and wanting to know how long we were staying. We told them we'd stop back by the office and they could verify whatever they needed to then. Walked down to the front desk, the clerk...Scary doesn't even begin to describe our experience. I've traveled a lot in my life and have stayed in an assortment of hotels and there have been a few that I still shake my head about, but this was the first time I've ever requested my money back and left due to the condition of the room. First, there was something wet and sticky all over the floor and the room had a musty odor that I hoped would lessen once the air conditioner kicked in. The bed looked like it was ready to collapse in upon itself. I pulled the comforter back to inspect the sheets, and noticed the comforter had obviously not been changed in some time - it was filthy and had stains and cigarette burn holes in it (and it was a non-smoking room). When I walked into the bathroom, there was hair on the toilet seat. Within the first 10 minutes in this room, I'd been bitten by a biting fly twice and was beginning to wonder what kind of vermin would crawl on me once I sat down on the bed. Then the phone rang and someone claiming to be from management started asking to verify some personal information and wanting to know how long we were staying. We told them we'd stop back by the office and they could verify whatever they needed to then. Walked down to the front desk, the clerk asserted that no one by that name works for this hotel, pretty sure he was a scam artist looking for a score. Walked back to the room, through the smell of stale beer in the stairwells. Back inside, got bit again, killed a bug on the wall. Decided we just couldn't handle the filth, bugs and uncertainty about whether our car was going to still be in the parking lot come morning. The one positive I can say is that the clerk handled things as well as she could under the circumstances. She issued the refund quickly and made a note of the complaints. I've stayed in Motel 6 locations before that were clean and well maintained, so I know these conditions were not just because it was a budget hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d629349-r390710846-Motel_6_Decatur-Decatur_Alabama.html</t>
+  </si>
+  <si>
+    <t>390710846</t>
+  </si>
+  <si>
+    <t>07/09/2016</t>
+  </si>
+  <si>
+    <t>Ummm..OK...Wow!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I made reservations for our stay here on Expedia.com, and they shouldn't even list this as a place to stay! Cheap enough if you ABSOLUTELY have no other affordable options for a place to stay for a night. Flies were abundant. TV had 13 channels, mattresses were old and sunk in...floor was sticky. Car alarms going off in the parking lot outside our room at 4am, and the quests in the next room were yelling and arguing at 3am! I made sure I had a blade in my pocket when I walked my dog! </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d629349-r304725822-Motel_6_Decatur-Decatur_Alabama.html</t>
+  </si>
+  <si>
+    <t>304725822</t>
+  </si>
+  <si>
+    <t>08/29/2015</t>
+  </si>
+  <si>
+    <t>Do not stay if you have achoice</t>
+  </si>
+  <si>
+    <t>Forced to stay 2 nights due to truck breakdown.  First night had to fend off flies, went to front desk to get flyswatter they were that bad.  Second night I asked for different room and had repeat of fly problem.  Bed was well wornMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>6Team, brand expericened team member at Motel 6 Decatur, responded to this reviewResponded August 31, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 31, 2015</t>
+  </si>
+  <si>
+    <t>Forced to stay 2 nights due to truck breakdown.  First night had to fend off flies, went to front desk to get flyswatter they were that bad.  Second night I asked for different room and had repeat of fly problem.  Bed was well wornMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d629349-r284571083-Motel_6_Decatur-Decatur_Alabama.html</t>
+  </si>
+  <si>
+    <t>284571083</t>
+  </si>
+  <si>
+    <t>06/30/2015</t>
+  </si>
+  <si>
+    <t>Not the best</t>
+  </si>
+  <si>
+    <t>Stayed here 1 night while traveling, and since we have a small dog, it's convenient.   Definitely not one of the better ones.  Musty smell, a little scary on the area as well.  Not very clean.  Desk clerk was personable though.  Won't make it a stop next time.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Decatur, responded to this reviewResponded July 7, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 7, 2015</t>
+  </si>
+  <si>
+    <t>Stayed here 1 night while traveling, and since we have a small dog, it's convenient.   Definitely not one of the better ones.  Musty smell, a little scary on the area as well.  Not very clean.  Desk clerk was personable though.  Won't make it a stop next time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d629349-r274984047-Motel_6_Decatur-Decatur_Alabama.html</t>
+  </si>
+  <si>
+    <t>274984047</t>
+  </si>
+  <si>
+    <t>05/27/2015</t>
+  </si>
+  <si>
+    <t>The armpit of the crotch of the world</t>
+  </si>
+  <si>
+    <t>Filthy, bleak, ill conceived, bad location, broken fixtures, impacted dirt, mold growing, smelly, hard matresses, tube tvs, no alarm clock; all this for the same price you would pay at a brand new, nicely appointed Motel 6.I'll sleep in my truck before I stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Decatur, responded to this reviewResponded May 28, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 28, 2015</t>
+  </si>
+  <si>
+    <t>Filthy, bleak, ill conceived, bad location, broken fixtures, impacted dirt, mold growing, smelly, hard matresses, tube tvs, no alarm clock; all this for the same price you would pay at a brand new, nicely appointed Motel 6.I'll sleep in my truck before I stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d629349-r257812584-Motel_6_Decatur-Decatur_Alabama.html</t>
+  </si>
+  <si>
+    <t>257812584</t>
+  </si>
+  <si>
+    <t>03/05/2015</t>
+  </si>
+  <si>
+    <t>If i could give it a zero I would.</t>
+  </si>
+  <si>
+    <t>We were forced to stay here during severe icy weather. We found a dirty used condom in not one room but two! The ceiling was leaking and chipping in one room and the heater did not work in either of the rooms. AVOID AT ALL COSTS!</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d629349-r256389204-Motel_6_Decatur-Decatur_Alabama.html</t>
+  </si>
+  <si>
+    <t>256389204</t>
+  </si>
+  <si>
+    <t>02/25/2015</t>
+  </si>
+  <si>
+    <t>Terrible hotel, but very nice staff</t>
+  </si>
+  <si>
+    <t>This is one of the worst hotels I have ever stayed at and I was only there because of being stranded in an ice storm. The floor in my room was dirty, the ceiling was leaking water onto the other bed. The ceiling was falling apart in several places. The place honestly only deserves one star but I gave it two because the hotel staff are very friendly and helpful.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d629349-r236133137-Motel_6_Decatur-Decatur_Alabama.html</t>
+  </si>
+  <si>
+    <t>236133137</t>
+  </si>
+  <si>
+    <t>10/24/2014</t>
+  </si>
+  <si>
+    <t>NOT PET FRIENDLY AND VERY RUDE MANAGER AND HOUSEKEEPING!!!</t>
+  </si>
+  <si>
+    <t>We were told they were pet friendly!! NOT!! We took our dogs out to potty where they told us, had manager of resturaunt knock on my door to say it was not hotel property!! Then when we checked in asked for smoking room. That night general manager called our room and said it was a handicap room. We had to stay an extra week, went to renew, were told they wouldn't rent to us becausewe had dogs and were smoking in a non ssmoking room. General manager is rude, housekeeping doesn't speak English and are VERY RUDE!!  What happened to customer service???MoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Decatur, responded to this reviewResponded November 4, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 4, 2014</t>
+  </si>
+  <si>
+    <t>We were told they were pet friendly!! NOT!! We took our dogs out to potty where they told us, had manager of resturaunt knock on my door to say it was not hotel property!! Then when we checked in asked for smoking room. That night general manager called our room and said it was a handicap room. We had to stay an extra week, went to renew, were told they wouldn't rent to us becausewe had dogs and were smoking in a non ssmoking room. General manager is rude, housekeeping doesn't speak English and are VERY RUDE!!  What happened to customer service???More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d629349-r198053542-Motel_6_Decatur-Decatur_Alabama.html</t>
+  </si>
+  <si>
+    <t>198053542</t>
+  </si>
+  <si>
+    <t>03/20/2014</t>
+  </si>
+  <si>
+    <t>If you want to wake up to roaches on wall, stay here.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We drove over 900 miles and we're tired. Stopped here for night. Wish we had kept going. The room was filthy. The remains of someone's bowel movement still on toilet. Dead roaches on floor and woke up to a massive live roach on  bathroom wall. I couldn't even take shower because I was afraid roaches were going to drop on me. This place should be condemned. We stay in a different hotel every night due to business and this is the worst! </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d629349-r197293926-Motel_6_Decatur-Decatur_Alabama.html</t>
+  </si>
+  <si>
+    <t>197293926</t>
+  </si>
+  <si>
+    <t>03/13/2014</t>
+  </si>
+  <si>
+    <t>Cockroach Hotel</t>
+  </si>
+  <si>
+    <t>From the filthy carpets, broken coffee machine (main office), dirty old blanket, broken ice machine, poor mattress and smoky smell (in a non-smoking room) to the four large cockroaches that I killed I would venture to say that this is the worst hotel that I ever stayed in.  Motel 6 is not the Hilton and I did not expect it to be, but Motel 6 headquarters should take a look at this place.  Take my advice and stay elsewhere.</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d629349-r184988937-Motel_6_Decatur-Decatur_Alabama.html</t>
+  </si>
+  <si>
+    <t>184988937</t>
+  </si>
+  <si>
+    <t>11/17/2013</t>
+  </si>
+  <si>
+    <t>All Night Party " DUMP"</t>
+  </si>
+  <si>
+    <t>IF you have to stay at this dump you better have your Glock on the night stand! I have never stayed at a place as unsafe and Nasty in my like. Every room around us was a all night party. Loud trucks and cars in and out all night long parking for a few minutes and then leaving and slamming doors and raising cane. There is no place to park a truck and boat, parking looks nothing like what they show online. BEWARE, DO NOT STAY THERE !!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>Motel6, Public Relations Manager at Motel 6 Decatur, responded to this reviewResponded November 21, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 21, 2013</t>
+  </si>
+  <si>
+    <t>IF you have to stay at this dump you better have your Glock on the night stand! I have never stayed at a place as unsafe and Nasty in my like. Every room around us was a all night party. Loud trucks and cars in and out all night long parking for a few minutes and then leaving and slamming doors and raising cane. There is no place to park a truck and boat, parking looks nothing like what they show online. BEWARE, DO NOT STAY THERE !!!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d629349-r167870846-Motel_6_Decatur-Decatur_Alabama.html</t>
+  </si>
+  <si>
+    <t>167870846</t>
+  </si>
+  <si>
+    <t>07/16/2013</t>
+  </si>
+  <si>
+    <t>Worst Motel 6 I've ever visited</t>
+  </si>
+  <si>
+    <t>nobody answered front desk phone on multiple occasions.ice machine didn't work for duration of stay.power outlet didn't work.heavily stained carpet.creaky bed.very bad pillows.door difficult to open and close.no kleenex.broken air conditioning units littering hallway.I travel 100% of my life. I'm not picky or anything. but this place was bad. $50/night with tax for 2 adults and dog.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>Motel6, Public Relations Manager at Motel 6 Decatur, responded to this reviewResponded July 22, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 22, 2013</t>
+  </si>
+  <si>
+    <t>nobody answered front desk phone on multiple occasions.ice machine didn't work for duration of stay.power outlet didn't work.heavily stained carpet.creaky bed.very bad pillows.door difficult to open and close.no kleenex.broken air conditioning units littering hallway.I travel 100% of my life. I'm not picky or anything. but this place was bad. $50/night with tax for 2 adults and dog.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d629349-r166847654-Motel_6_Decatur-Decatur_Alabama.html</t>
+  </si>
+  <si>
+    <t>166847654</t>
+  </si>
+  <si>
+    <t>07/08/2013</t>
+  </si>
+  <si>
+    <t>Insane asylum</t>
+  </si>
+  <si>
+    <t>It was cheap, convenient and they take dogs.  We just wanted a place to sleep after a long day's drive in pouring rain.  We didn't expect much at that price and were not surprised.  You could see that an effort had been made to vacuum the ugly, stained and stinky carpet.  The sheets reeked of bleach but at least they were washed.  The bathroom was clean.  All in all a bit on the seedy side but adequate.  The real kicker was the crazy woman outside screaming in the middle of the night and talking nonstop at the top of her lungs.  I expected the men in white coats any time.  After a while someone (owner? manager?) did come and tell her to leave.  It took a while for the commotion to cease but it finally did.MoreShow less</t>
+  </si>
+  <si>
+    <t>It was cheap, convenient and they take dogs.  We just wanted a place to sleep after a long day's drive in pouring rain.  We didn't expect much at that price and were not surprised.  You could see that an effort had been made to vacuum the ugly, stained and stinky carpet.  The sheets reeked of bleach but at least they were washed.  The bathroom was clean.  All in all a bit on the seedy side but adequate.  The real kicker was the crazy woman outside screaming in the middle of the night and talking nonstop at the top of her lungs.  I expected the men in white coats any time.  After a while someone (owner? manager?) did come and tell her to leave.  It took a while for the commotion to cease but it finally did.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d629349-r158956903-Motel_6_Decatur-Decatur_Alabama.html</t>
+  </si>
+  <si>
+    <t>158956903</t>
+  </si>
+  <si>
+    <t>04/27/2013</t>
+  </si>
+  <si>
+    <t>Having bad dreams</t>
+  </si>
+  <si>
+    <t>I am the lady that the manager tried to open her door at 3:00am. I am still having bad dreams about this incident . He knew a single woman was registered in that room! What were his intentions? He is one sorry example for a manager!! If I hadn't had the door latched over what would have happened? I don't want to meet my end at the Motel 6 in Decatur,Alabama! Get rid of him! He is a danger! I should have called the Police and lodged a complaint at the very least. Avoid this hotel!!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d629349-r149305402-Motel_6_Decatur-Decatur_Alabama.html</t>
+  </si>
+  <si>
+    <t>149305402</t>
+  </si>
+  <si>
+    <t>01/09/2013</t>
+  </si>
+  <si>
+    <t>Scary</t>
+  </si>
+  <si>
+    <t>This is the dirtiest motel room I have ever stayed in.  The walls are smeared with stains, the edges of the rugs are covered with dust bunnies...  and there was a dead bedbug under the telephone receiver.I normally stay at Motel 6's because of their pet policy, and I am normally quite pleased with them.  Not this one!I liked the no-charge wifi (normally Motel 6s charge extra for wifi), the room was huge, and I liked the fact that the room had a fridge and a microwave (not usual for Motel 6s).  But I would've traded all that away for some cleanliness.  Now I'm worried that I'm bringing bedbugs home with me...MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>This is the dirtiest motel room I have ever stayed in.  The walls are smeared with stains, the edges of the rugs are covered with dust bunnies...  and there was a dead bedbug under the telephone receiver.I normally stay at Motel 6's because of their pet policy, and I am normally quite pleased with them.  Not this one!I liked the no-charge wifi (normally Motel 6s charge extra for wifi), the room was huge, and I liked the fact that the room had a fridge and a microwave (not usual for Motel 6s).  But I would've traded all that away for some cleanliness.  Now I'm worried that I'm bringing bedbugs home with me...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d629349-r148526257-Motel_6_Decatur-Decatur_Alabama.html</t>
+  </si>
+  <si>
+    <t>148526257</t>
+  </si>
+  <si>
+    <t>01/01/2013</t>
+  </si>
+  <si>
+    <t>Avoid At All Costs</t>
+  </si>
+  <si>
+    <t>The only good thing about this place is the price $35.99 with coupon. I travel for a living and use Motel 6 often especially when traveling with pet. The location is bad meaning it's not close to interstate. This used to be a Days Inn a few years ago and they bulldozed it down and built this Motel 6 from ground up. It's now as bad as the Days Inn evet was. Coffee in the morning; forget it. The doors always remain locked until noon. I killed the biggest roaches I've ever seen. The rooms are outdated and nasty. Very few travelers just local people use this place. Lots of stuff going on here if you know what I mean. I paid for a week and was stuck. Take a mature 51 year old advise and pass this place up.MoreShow less</t>
+  </si>
+  <si>
+    <t>The only good thing about this place is the price $35.99 with coupon. I travel for a living and use Motel 6 often especially when traveling with pet. The location is bad meaning it's not close to interstate. This used to be a Days Inn a few years ago and they bulldozed it down and built this Motel 6 from ground up. It's now as bad as the Days Inn evet was. Coffee in the morning; forget it. The doors always remain locked until noon. I killed the biggest roaches I've ever seen. The rooms are outdated and nasty. Very few travelers just local people use this place. Lots of stuff going on here if you know what I mean. I paid for a week and was stuck. Take a mature 51 year old advise and pass this place up.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d629349-r147817240-Motel_6_Decatur-Decatur_Alabama.html</t>
+  </si>
+  <si>
+    <t>147817240</t>
+  </si>
+  <si>
+    <t>12/20/2012</t>
+  </si>
+  <si>
+    <t>If this place is "refreshed", I'd have hated to see the 'before'.....</t>
+  </si>
+  <si>
+    <t>The ONLY good thing about this hotel was the price.  I was travelling for business, needed to be economical on lodging, and always knew that Motel 6 was supposed to be a basic, clean place to stay for the night.  I had been reading the reviews on this particular one and had some concern, but then there were a couple that had given a glimmer of hope. In addition, this motel is listed on the Motel 6 site as being "refreshed".  You could have fooled me.
+ Immediately on checking in, the girl in the office had an attitude.  Apparently I had disturbed her, as she was stretched out on the couch in the lobby on her phone.  I got to my room, opened the door, and the first thing that hit was the smell.  Not quite sure exactly what the smell was, but it wasn't pleasant. The carpet was filthy &amp; worn, with spots all over, furniture very dated, outlet covers missing. Not a good first impression.  2nd thing I did was pull back the bed spread.  It immediately went to the floor, because after seeing the spots on the underside of it, there's no way I was sleeping under it. Surprisingly, the sheets seemed ok,but the pillows were useless. 
+The walls in this room were filthy, cobwebs along the ceiling, dirty light switch plates, missing bar lock from the door. The bathroom was no better. Mold in the tub,...The ONLY good thing about this hotel was the price.  I was travelling for business, needed to be economical on lodging, and always knew that Motel 6 was supposed to be a basic, clean place to stay for the night.  I had been reading the reviews on this particular one and had some concern, but then there were a couple that had given a glimmer of hope. In addition, this motel is listed on the Motel 6 site as being "refreshed".  You could have fooled me. Immediately on checking in, the girl in the office had an attitude.  Apparently I had disturbed her, as she was stretched out on the couch in the lobby on her phone.  I got to my room, opened the door, and the first thing that hit was the smell.  Not quite sure exactly what the smell was, but it wasn't pleasant. The carpet was filthy &amp; worn, with spots all over, furniture very dated, outlet covers missing. Not a good first impression.  2nd thing I did was pull back the bed spread.  It immediately went to the floor, because after seeing the spots on the underside of it, there's no way I was sleeping under it. Surprisingly, the sheets seemed ok,but the pillows were useless. The walls in this room were filthy, cobwebs along the ceiling, dirty light switch plates, missing bar lock from the door. The bathroom was no better. Mold in the tub, gaps between the wall &amp; the tub surround. I only had a short trip to go in the morning, and after seeing the towels &amp; the condition of the bathroom, opted to skip a shower &amp; use the one towel that was actually clean &amp; spot free to take a sponge bath.Finally on to TRY &amp; get some sleep.  If you like trains, this is the place for you.  Between 2 &amp; 3 in the morning, there were at least 3 that came through. Between the trains &amp; the people outside, it wasn't a restful night.  I tried this place based on the chance that some of the latest reviews were accurate. I really have no clue which Motel 6 they stayed at, but the side of the building I was in was horrible.  I should have driven to the next exit..I realize this is a 'value' hotel, however, this is NOT the Motel 6 of the past.  I've paid about the same in other places and have had far better quality.  I at least expect the place to be clean - especially after it's listed as "refreshed", which to me, means it's been updated to some extent.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>The ONLY good thing about this hotel was the price.  I was travelling for business, needed to be economical on lodging, and always knew that Motel 6 was supposed to be a basic, clean place to stay for the night.  I had been reading the reviews on this particular one and had some concern, but then there were a couple that had given a glimmer of hope. In addition, this motel is listed on the Motel 6 site as being "refreshed".  You could have fooled me.
+ Immediately on checking in, the girl in the office had an attitude.  Apparently I had disturbed her, as she was stretched out on the couch in the lobby on her phone.  I got to my room, opened the door, and the first thing that hit was the smell.  Not quite sure exactly what the smell was, but it wasn't pleasant. The carpet was filthy &amp; worn, with spots all over, furniture very dated, outlet covers missing. Not a good first impression.  2nd thing I did was pull back the bed spread.  It immediately went to the floor, because after seeing the spots on the underside of it, there's no way I was sleeping under it. Surprisingly, the sheets seemed ok,but the pillows were useless. 
+The walls in this room were filthy, cobwebs along the ceiling, dirty light switch plates, missing bar lock from the door. The bathroom was no better. Mold in the tub,...The ONLY good thing about this hotel was the price.  I was travelling for business, needed to be economical on lodging, and always knew that Motel 6 was supposed to be a basic, clean place to stay for the night.  I had been reading the reviews on this particular one and had some concern, but then there were a couple that had given a glimmer of hope. In addition, this motel is listed on the Motel 6 site as being "refreshed".  You could have fooled me. Immediately on checking in, the girl in the office had an attitude.  Apparently I had disturbed her, as she was stretched out on the couch in the lobby on her phone.  I got to my room, opened the door, and the first thing that hit was the smell.  Not quite sure exactly what the smell was, but it wasn't pleasant. The carpet was filthy &amp; worn, with spots all over, furniture very dated, outlet covers missing. Not a good first impression.  2nd thing I did was pull back the bed spread.  It immediately went to the floor, because after seeing the spots on the underside of it, there's no way I was sleeping under it. Surprisingly, the sheets seemed ok,but the pillows were useless. The walls in this room were filthy, cobwebs along the ceiling, dirty light switch plates, missing bar lock from the door. The bathroom was no better. Mold in the tub, gaps between the wall &amp; the tub surround. I only had a short trip to go in the morning, and after seeing the towels &amp; the condition of the bathroom, opted to skip a shower &amp; use the one towel that was actually clean &amp; spot free to take a sponge bath.Finally on to TRY &amp; get some sleep.  If you like trains, this is the place for you.  Between 2 &amp; 3 in the morning, there were at least 3 that came through. Between the trains &amp; the people outside, it wasn't a restful night.  I tried this place based on the chance that some of the latest reviews were accurate. I really have no clue which Motel 6 they stayed at, but the side of the building I was in was horrible.  I should have driven to the next exit..I realize this is a 'value' hotel, however, this is NOT the Motel 6 of the past.  I've paid about the same in other places and have had far better quality.  I at least expect the place to be clean - especially after it's listed as "refreshed", which to me, means it's been updated to some extent.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d629349-r130373122-Motel_6_Decatur-Decatur_Alabama.html</t>
+  </si>
+  <si>
+    <t>130373122</t>
+  </si>
+  <si>
+    <t>05/21/2012</t>
+  </si>
+  <si>
+    <t>We're so not fussy, but this place sucks</t>
+  </si>
+  <si>
+    <t>Find another motel. We are currently in this one, and here's what we've noticed so far:1. Room reeked of urine.2. Many unsavory folks hanging around, including two women who were dressed rather unusually, shall we say, with 5-inch heels and more perfume than I've worn—total—in my entire life.3. Bathroom door half off of hinges, can't close.4. Chain security lock on door, gone.5. Ice machine broken, went to gas station for ice.6. And smaller PITA things: TV remote is wrong one for TV, doesn't work; no ashtrays in what's supposed to be a smoking room, piles of tarps &amp; stuff on sidewalks (no work going on, just piles), no tissues, general filth. Window looks like it hasn't been cleaned in years, dirty tissues behind nightstand (was looking for outlet for computer), no lightbulb in lamp over bed, just empty socket (plugged in).But hey, it's a bed &amp; we're tired of driving and teh Net works fine so far. And teh guy who's been sitting in his car right outside teh door ever since we got her an hr ago actually looked up and said hello when I said, Hey, how you doin'.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Find another motel. We are currently in this one, and here's what we've noticed so far:1. Room reeked of urine.2. Many unsavory folks hanging around, including two women who were dressed rather unusually, shall we say, with 5-inch heels and more perfume than I've worn—total—in my entire life.3. Bathroom door half off of hinges, can't close.4. Chain security lock on door, gone.5. Ice machine broken, went to gas station for ice.6. And smaller PITA things: TV remote is wrong one for TV, doesn't work; no ashtrays in what's supposed to be a smoking room, piles of tarps &amp; stuff on sidewalks (no work going on, just piles), no tissues, general filth. Window looks like it hasn't been cleaned in years, dirty tissues behind nightstand (was looking for outlet for computer), no lightbulb in lamp over bed, just empty socket (plugged in).But hey, it's a bed &amp; we're tired of driving and teh Net works fine so far. And teh guy who's been sitting in his car right outside teh door ever since we got her an hr ago actually looked up and said hello when I said, Hey, how you doin'.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d629349-r124944060-Motel_6_Decatur-Decatur_Alabama.html</t>
+  </si>
+  <si>
+    <t>124944060</t>
+  </si>
+  <si>
+    <t>02/20/2012</t>
+  </si>
+  <si>
+    <t>good value motel</t>
+  </si>
+  <si>
+    <t>I stayed at this motel during a trip in November.  The price was really what first attracted me as it was about $34 bucks a night and I was traveling on a budget.  When I checked in, the woman at the front desk was very friendly and check in was quick.  While this is an older motel, it was clean.  As might be expected with an older building, there were a few cosmetic flaws.   However, there was no smell, no dirt, and no bugs to be found in the room.  The beds were comfortable and the linens clean as well.   I'm not sure what people expect for $34 a night, but this was fine for the price and I would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>I stayed at this motel during a trip in November.  The price was really what first attracted me as it was about $34 bucks a night and I was traveling on a budget.  When I checked in, the woman at the front desk was very friendly and check in was quick.  While this is an older motel, it was clean.  As might be expected with an older building, there were a few cosmetic flaws.   However, there was no smell, no dirt, and no bugs to be found in the room.  The beds were comfortable and the linens clean as well.   I'm not sure what people expect for $34 a night, but this was fine for the price and I would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d629349-r111814543-Motel_6_Decatur-Decatur_Alabama.html</t>
+  </si>
+  <si>
+    <t>111814543</t>
+  </si>
+  <si>
+    <t>06/06/2011</t>
+  </si>
+  <si>
+    <t>Unsafe, Unmaintained, and Dirty Motel with Poor Service</t>
+  </si>
+  <si>
+    <t>In May 2011, my family was in Decatur.  While in Decatur, AL, we decided to stay overnight at a hotel.  Using Motel 6's website, we booked a reservation.  Later, when we checked in at the front desk, the clerk assigned us a different room type than what was reserved.  When asked why, the unfriendly teenage boy behind the front desk said that our "guaranteed" room was not available.  The hotel was the WORST that we have ever attempted to stay in.  The one ice machine was working, but the exterior button was missing (To get ice, you had to stick your finger in the hole where the button was supposed to be and press something inside the ice machine.).  The room itself had wires instead of a smoke detector.  The towels were stained, the carpet for the baseboards were piled up in one corner of the room, the walls were dirty, and the wall plate for an outlet was missing.  Also, in order to use the room's phone to call the front desk, you have to use a fingernail to pull up and hold up the "hangup button" on the phone's base (This is the first time that I have ever encountered this type of problem at a motel.).  We went to the front desk to leave the hotel and to ask for a refund.  Before going back to the front desk, I took pictures of our hotel room just...In May 2011, my family was in Decatur.  While in Decatur, AL, we decided to stay overnight at a hotel.  Using Motel 6's website, we booked a reservation.  Later, when we checked in at the front desk, the clerk assigned us a different room type than what was reserved.  When asked why, the unfriendly teenage boy behind the front desk said that our "guaranteed" room was not available.  The hotel was the WORST that we have ever attempted to stay in.  The one ice machine was working, but the exterior button was missing (To get ice, you had to stick your finger in the hole where the button was supposed to be and press something inside the ice machine.).  The room itself had wires instead of a smoke detector.  The towels were stained, the carpet for the baseboards were piled up in one corner of the room, the walls were dirty, and the wall plate for an outlet was missing.  Also, in order to use the room's phone to call the front desk, you have to use a fingernail to pull up and hold up the "hangup button" on the phone's base (This is the first time that I have ever encountered this type of problem at a motel.).  We went to the front desk to leave the hotel and to ask for a refund.  Before going back to the front desk, I took pictures of our hotel room just in case the teenage hotel clerk refused our request for a refund.  Besides the location, I actually cannot think of one positive thing about this motel.  Since I already took pictures of our hotel room, I decided to include them in my review.  I have stayed in Motel 6 locations that were pretty decent.  This was not one of them.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
+    <t>In May 2011, my family was in Decatur.  While in Decatur, AL, we decided to stay overnight at a hotel.  Using Motel 6's website, we booked a reservation.  Later, when we checked in at the front desk, the clerk assigned us a different room type than what was reserved.  When asked why, the unfriendly teenage boy behind the front desk said that our "guaranteed" room was not available.  The hotel was the WORST that we have ever attempted to stay in.  The one ice machine was working, but the exterior button was missing (To get ice, you had to stick your finger in the hole where the button was supposed to be and press something inside the ice machine.).  The room itself had wires instead of a smoke detector.  The towels were stained, the carpet for the baseboards were piled up in one corner of the room, the walls were dirty, and the wall plate for an outlet was missing.  Also, in order to use the room's phone to call the front desk, you have to use a fingernail to pull up and hold up the "hangup button" on the phone's base (This is the first time that I have ever encountered this type of problem at a motel.).  We went to the front desk to leave the hotel and to ask for a refund.  Before going back to the front desk, I took pictures of our hotel room just...In May 2011, my family was in Decatur.  While in Decatur, AL, we decided to stay overnight at a hotel.  Using Motel 6's website, we booked a reservation.  Later, when we checked in at the front desk, the clerk assigned us a different room type than what was reserved.  When asked why, the unfriendly teenage boy behind the front desk said that our "guaranteed" room was not available.  The hotel was the WORST that we have ever attempted to stay in.  The one ice machine was working, but the exterior button was missing (To get ice, you had to stick your finger in the hole where the button was supposed to be and press something inside the ice machine.).  The room itself had wires instead of a smoke detector.  The towels were stained, the carpet for the baseboards were piled up in one corner of the room, the walls were dirty, and the wall plate for an outlet was missing.  Also, in order to use the room's phone to call the front desk, you have to use a fingernail to pull up and hold up the "hangup button" on the phone's base (This is the first time that I have ever encountered this type of problem at a motel.).  We went to the front desk to leave the hotel and to ask for a refund.  Before going back to the front desk, I took pictures of our hotel room just in case the teenage hotel clerk refused our request for a refund.  Besides the location, I actually cannot think of one positive thing about this motel.  Since I already took pictures of our hotel room, I decided to include them in my review.  I have stayed in Motel 6 locations that were pretty decent.  This was not one of them.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d629349-r71288197-Motel_6_Decatur-Decatur_Alabama.html</t>
+  </si>
+  <si>
+    <t>71288197</t>
+  </si>
+  <si>
+    <t>07/17/2010</t>
+  </si>
+  <si>
+    <t>Watch out for price gouging</t>
+  </si>
+  <si>
+    <t>ReviewsWrite a reviewYour review has been deleted.Your review  Check the rates!‎ - ‎ - TodayThis is a franchise run by foreigners. The rate on the Motel 6 web site was $42.99 while their posted rate was 49.99. Additionally, they stated the senior rate did not apply unless one was 65 years old. Unfortunately, I have found that I have to check the rate (or make a reservation) using the Motel 6 website when going to foreign run/owned Motel 6 franchises. I ended up going elsewhere. Edit - Delete</t>
+  </si>
+  <si>
+    <t>July 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d629349-r35140604-Motel_6_Decatur-Decatur_Alabama.html</t>
+  </si>
+  <si>
+    <t>35140604</t>
+  </si>
+  <si>
+    <t>07/19/2009</t>
+  </si>
+  <si>
+    <t>Blah</t>
+  </si>
+  <si>
+    <t>Carpet was wet by the front door and the room smelled moldy as a result.  It wasn't worth the cost. We should have gone to the LaQuinta and paid more. Dumpy place.</t>
+  </si>
+  <si>
+    <t>July 2009</t>
   </si>
 </sst>
 </file>
@@ -645,6 +1147,1479 @@
         <v>42</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>49002</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>49002</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="n">
+        <v>3</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>4</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>49002</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" t="s">
+        <v>67</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>49002</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" t="s">
+        <v>74</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>75</v>
+      </c>
+      <c r="X5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>49002</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>83</v>
+      </c>
+      <c r="O6" t="s">
+        <v>60</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>84</v>
+      </c>
+      <c r="X6" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>49002</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L7" t="s">
+        <v>91</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>92</v>
+      </c>
+      <c r="O7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>93</v>
+      </c>
+      <c r="X7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>49002</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>97</v>
+      </c>
+      <c r="J8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K8" t="s">
+        <v>99</v>
+      </c>
+      <c r="L8" t="s">
+        <v>100</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>101</v>
+      </c>
+      <c r="O8" t="s">
+        <v>74</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>49002</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>103</v>
+      </c>
+      <c r="J9" t="s">
+        <v>104</v>
+      </c>
+      <c r="K9" t="s">
+        <v>105</v>
+      </c>
+      <c r="L9" t="s">
+        <v>106</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>101</v>
+      </c>
+      <c r="O9" t="s">
+        <v>74</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>49002</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>107</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>108</v>
+      </c>
+      <c r="J10" t="s">
+        <v>109</v>
+      </c>
+      <c r="K10" t="s">
+        <v>110</v>
+      </c>
+      <c r="L10" t="s">
+        <v>111</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>112</v>
+      </c>
+      <c r="X10" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>49002</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>116</v>
+      </c>
+      <c r="J11" t="s">
+        <v>117</v>
+      </c>
+      <c r="K11" t="s">
+        <v>118</v>
+      </c>
+      <c r="L11" t="s">
+        <v>119</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s"/>
+      <c r="O11" t="s"/>
+      <c r="P11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" t="n">
+        <v>3</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>3</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>49002</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>120</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>121</v>
+      </c>
+      <c r="J12" t="s">
+        <v>122</v>
+      </c>
+      <c r="K12" t="s">
+        <v>123</v>
+      </c>
+      <c r="L12" t="s">
+        <v>124</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>125</v>
+      </c>
+      <c r="O12" t="s">
+        <v>60</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>2</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>49002</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>126</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>127</v>
+      </c>
+      <c r="J13" t="s">
+        <v>128</v>
+      </c>
+      <c r="K13" t="s">
+        <v>129</v>
+      </c>
+      <c r="L13" t="s">
+        <v>130</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>131</v>
+      </c>
+      <c r="O13" t="s">
+        <v>67</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>132</v>
+      </c>
+      <c r="X13" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>49002</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>135</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>136</v>
+      </c>
+      <c r="J14" t="s">
+        <v>137</v>
+      </c>
+      <c r="K14" t="s">
+        <v>138</v>
+      </c>
+      <c r="L14" t="s">
+        <v>139</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="s">
+        <v>140</v>
+      </c>
+      <c r="O14" t="s">
+        <v>60</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2</v>
+      </c>
+      <c r="R14" t="n">
+        <v>3</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>2</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>141</v>
+      </c>
+      <c r="X14" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>49002</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>144</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>145</v>
+      </c>
+      <c r="J15" t="s">
+        <v>146</v>
+      </c>
+      <c r="K15" t="s">
+        <v>147</v>
+      </c>
+      <c r="L15" t="s">
+        <v>148</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>140</v>
+      </c>
+      <c r="O15" t="s">
+        <v>67</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2</v>
+      </c>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>49002</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>150</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>151</v>
+      </c>
+      <c r="J16" t="s">
+        <v>152</v>
+      </c>
+      <c r="K16" t="s">
+        <v>153</v>
+      </c>
+      <c r="L16" t="s">
+        <v>154</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s"/>
+      <c r="O16" t="s"/>
+      <c r="P16" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>1</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>49002</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>155</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>156</v>
+      </c>
+      <c r="J17" t="s">
+        <v>157</v>
+      </c>
+      <c r="K17" t="s">
+        <v>158</v>
+      </c>
+      <c r="L17" t="s">
+        <v>159</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>160</v>
+      </c>
+      <c r="O17" t="s">
+        <v>60</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>3</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>49002</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>162</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>163</v>
+      </c>
+      <c r="J18" t="s">
+        <v>164</v>
+      </c>
+      <c r="K18" t="s">
+        <v>165</v>
+      </c>
+      <c r="L18" t="s">
+        <v>166</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s"/>
+      <c r="O18" t="s"/>
+      <c r="P18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>49002</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>168</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>169</v>
+      </c>
+      <c r="J19" t="s">
+        <v>170</v>
+      </c>
+      <c r="K19" t="s">
+        <v>171</v>
+      </c>
+      <c r="L19" t="s">
+        <v>172</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>173</v>
+      </c>
+      <c r="O19" t="s">
+        <v>74</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" t="n">
+        <v>2</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>2</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>49002</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>175</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>176</v>
+      </c>
+      <c r="J20" t="s">
+        <v>177</v>
+      </c>
+      <c r="K20" t="s">
+        <v>178</v>
+      </c>
+      <c r="L20" t="s">
+        <v>179</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>180</v>
+      </c>
+      <c r="O20" t="s">
+        <v>181</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1</v>
+      </c>
+      <c r="R20" t="n">
+        <v>2</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>3</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>49002</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>183</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>184</v>
+      </c>
+      <c r="J21" t="s">
+        <v>185</v>
+      </c>
+      <c r="K21" t="s">
+        <v>186</v>
+      </c>
+      <c r="L21" t="s">
+        <v>187</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>188</v>
+      </c>
+      <c r="O21" t="s">
+        <v>74</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>4</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>4</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>49002</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>190</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>191</v>
+      </c>
+      <c r="J22" t="s">
+        <v>192</v>
+      </c>
+      <c r="K22" t="s">
+        <v>193</v>
+      </c>
+      <c r="L22" t="s">
+        <v>194</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>195</v>
+      </c>
+      <c r="O22" t="s">
+        <v>67</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="n">
+        <v>1</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>1</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>49002</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>197</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>198</v>
+      </c>
+      <c r="J23" t="s">
+        <v>199</v>
+      </c>
+      <c r="K23" t="s">
+        <v>200</v>
+      </c>
+      <c r="L23" t="s">
+        <v>201</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>202</v>
+      </c>
+      <c r="O23" t="s">
+        <v>74</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>49002</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>203</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>204</v>
+      </c>
+      <c r="J24" t="s">
+        <v>205</v>
+      </c>
+      <c r="K24" t="s">
+        <v>206</v>
+      </c>
+      <c r="L24" t="s">
+        <v>207</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="s">
+        <v>208</v>
+      </c>
+      <c r="O24" t="s">
+        <v>60</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R24" t="s"/>
+      <c r="S24" t="n">
+        <v>2</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>2</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>207</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_567.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_567.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="232">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>cprovince</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t>This place is not worth your money. Pay the extra money to stay somewhere else. I booked a nonsmoking room and there were several cigarette burns in the sheets and comforter. The telephone buttons were missing making it inoperable. The noise throughout the night was awful, so even if you just need a place to catch some sleep, you can't because you can hear everything through the paper thin walls. The management is giving a terrible reputation to Motel 6 and if I were Motel 6, I would break the franchise agreement with these owners. There was never anyone at the front desk. The lobby restroom looked like it had not been attended to in months. Avoid this hell hole. More</t>
   </si>
   <si>
+    <t>Christine T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d629349-r398825632-Motel_6_Decatur-Decatur_Alabama.html</t>
   </si>
   <si>
@@ -204,6 +210,9 @@
     <t>Scary doesn't even begin to describe our experience. I've traveled a lot in my life and have stayed in an assortment of hotels and there have been a few that I still shake my head about, but this was the first time I've ever requested my money back and left due to the condition of the room. First, there was something wet and sticky all over the floor and the room had a musty odor that I hoped would lessen once the air conditioner kicked in. The bed looked like it was ready to collapse in upon itself. I pulled the comforter back to inspect the sheets, and noticed the comforter had obviously not been changed in some time - it was filthy and had stains and cigarette burn holes in it (and it was a non-smoking room). When I walked into the bathroom, there was hair on the toilet seat. Within the first 10 minutes in this room, I'd been bitten by a biting fly twice and was beginning to wonder what kind of vermin would crawl on me once I sat down on the bed. Then the phone rang and someone claiming to be from management started asking to verify some personal information and wanting to know how long we were staying. We told them we'd stop back by the office and they could verify whatever they needed to then. Walked down to the front desk, the clerk...Scary doesn't even begin to describe our experience. I've traveled a lot in my life and have stayed in an assortment of hotels and there have been a few that I still shake my head about, but this was the first time I've ever requested my money back and left due to the condition of the room. First, there was something wet and sticky all over the floor and the room had a musty odor that I hoped would lessen once the air conditioner kicked in. The bed looked like it was ready to collapse in upon itself. I pulled the comforter back to inspect the sheets, and noticed the comforter had obviously not been changed in some time - it was filthy and had stains and cigarette burn holes in it (and it was a non-smoking room). When I walked into the bathroom, there was hair on the toilet seat. Within the first 10 minutes in this room, I'd been bitten by a biting fly twice and was beginning to wonder what kind of vermin would crawl on me once I sat down on the bed. Then the phone rang and someone claiming to be from management started asking to verify some personal information and wanting to know how long we were staying. We told them we'd stop back by the office and they could verify whatever they needed to then. Walked down to the front desk, the clerk asserted that no one by that name works for this hotel, pretty sure he was a scam artist looking for a score. Walked back to the room, through the smell of stale beer in the stairwells. Back inside, got bit again, killed a bug on the wall. Decided we just couldn't handle the filth, bugs and uncertainty about whether our car was going to still be in the parking lot come morning. The one positive I can say is that the clerk handled things as well as she could under the circumstances. She issued the refund quickly and made a note of the complaints. I've stayed in Motel 6 locations before that were clean and well maintained, so I know these conditions were not just because it was a budget hotel.More</t>
   </si>
   <si>
+    <t>michellegriffin40</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d629349-r390710846-Motel_6_Decatur-Decatur_Alabama.html</t>
   </si>
   <si>
@@ -222,6 +231,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>Otto J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d629349-r304725822-Motel_6_Decatur-Decatur_Alabama.html</t>
   </si>
   <si>
@@ -252,6 +264,9 @@
     <t>Forced to stay 2 nights due to truck breakdown.  First night had to fend off flies, went to front desk to get flyswatter they were that bad.  Second night I asked for different room and had repeat of fly problem.  Bed was well wornMore</t>
   </si>
   <si>
+    <t>JTlewis4763</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d629349-r284571083-Motel_6_Decatur-Decatur_Alabama.html</t>
   </si>
   <si>
@@ -279,6 +294,9 @@
     <t>Stayed here 1 night while traveling, and since we have a small dog, it's convenient.   Definitely not one of the better ones.  Musty smell, a little scary on the area as well.  Not very clean.  Desk clerk was personable though.  Won't make it a stop next time.More</t>
   </si>
   <si>
+    <t>buckroy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d629349-r274984047-Motel_6_Decatur-Decatur_Alabama.html</t>
   </si>
   <si>
@@ -306,6 +324,9 @@
     <t>Filthy, bleak, ill conceived, bad location, broken fixtures, impacted dirt, mold growing, smelly, hard matresses, tube tvs, no alarm clock; all this for the same price you would pay at a brand new, nicely appointed Motel 6.I'll sleep in my truck before I stay there again.More</t>
   </si>
   <si>
+    <t>Amy B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d629349-r257812584-Motel_6_Decatur-Decatur_Alabama.html</t>
   </si>
   <si>
@@ -324,6 +345,9 @@
     <t>February 2015</t>
   </si>
   <si>
+    <t>wraithleaderx</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d629349-r256389204-Motel_6_Decatur-Decatur_Alabama.html</t>
   </si>
   <si>
@@ -339,6 +363,9 @@
     <t>This is one of the worst hotels I have ever stayed at and I was only there because of being stranded in an ice storm. The floor in my room was dirty, the ceiling was leaking water onto the other bed. The ceiling was falling apart in several places. The place honestly only deserves one star but I gave it two because the hotel staff are very friendly and helpful.</t>
   </si>
   <si>
+    <t>medicboo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d629349-r236133137-Motel_6_Decatur-Decatur_Alabama.html</t>
   </si>
   <si>
@@ -363,6 +390,9 @@
     <t>We were told they were pet friendly!! NOT!! We took our dogs out to potty where they told us, had manager of resturaunt knock on my door to say it was not hotel property!! Then when we checked in asked for smoking room. That night general manager called our room and said it was a handicap room. We had to stay an extra week, went to renew, were told they wouldn't rent to us becausewe had dogs and were smoking in a non ssmoking room. General manager is rude, housekeeping doesn't speak English and are VERY RUDE!!  What happened to customer service???More</t>
   </si>
   <si>
+    <t>lindsays17</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d629349-r198053542-Motel_6_Decatur-Decatur_Alabama.html</t>
   </si>
   <si>
@@ -378,6 +408,9 @@
     <t xml:space="preserve">We drove over 900 miles and we're tired. Stopped here for night. Wish we had kept going. The room was filthy. The remains of someone's bowel movement still on toilet. Dead roaches on floor and woke up to a massive live roach on  bathroom wall. I couldn't even take shower because I was afraid roaches were going to drop on me. This place should be condemned. We stay in a different hotel every night due to business and this is the worst! </t>
   </si>
   <si>
+    <t>maryandgary2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d629349-r197293926-Motel_6_Decatur-Decatur_Alabama.html</t>
   </si>
   <si>
@@ -396,6 +429,9 @@
     <t>March 2014</t>
   </si>
   <si>
+    <t>Richard K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d629349-r184988937-Motel_6_Decatur-Decatur_Alabama.html</t>
   </si>
   <si>
@@ -423,6 +459,9 @@
     <t>IF you have to stay at this dump you better have your Glock on the night stand! I have never stayed at a place as unsafe and Nasty in my like. Every room around us was a all night party. Loud trucks and cars in and out all night long parking for a few minutes and then leaving and slamming doors and raising cane. There is no place to park a truck and boat, parking looks nothing like what they show online. BEWARE, DO NOT STAY THERE !!!!!!More</t>
   </si>
   <si>
+    <t>LonestarMemphis</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d629349-r167870846-Motel_6_Decatur-Decatur_Alabama.html</t>
   </si>
   <si>
@@ -450,6 +489,9 @@
     <t>nobody answered front desk phone on multiple occasions.ice machine didn't work for duration of stay.power outlet didn't work.heavily stained carpet.creaky bed.very bad pillows.door difficult to open and close.no kleenex.broken air conditioning units littering hallway.I travel 100% of my life. I'm not picky or anything. but this place was bad. $50/night with tax for 2 adults and dog.More</t>
   </si>
   <si>
+    <t>Rita R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d629349-r166847654-Motel_6_Decatur-Decatur_Alabama.html</t>
   </si>
   <si>
@@ -468,6 +510,9 @@
     <t>It was cheap, convenient and they take dogs.  We just wanted a place to sleep after a long day's drive in pouring rain.  We didn't expect much at that price and were not surprised.  You could see that an effort had been made to vacuum the ugly, stained and stinky carpet.  The sheets reeked of bleach but at least they were washed.  The bathroom was clean.  All in all a bit on the seedy side but adequate.  The real kicker was the crazy woman outside screaming in the middle of the night and talking nonstop at the top of her lungs.  I expected the men in white coats any time.  After a while someone (owner? manager?) did come and tell her to leave.  It took a while for the commotion to cease but it finally did.More</t>
   </si>
   <si>
+    <t>195508</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d629349-r158956903-Motel_6_Decatur-Decatur_Alabama.html</t>
   </si>
   <si>
@@ -483,6 +528,9 @@
     <t>I am the lady that the manager tried to open her door at 3:00am. I am still having bad dreams about this incident . He knew a single woman was registered in that room! What were his intentions? He is one sorry example for a manager!! If I hadn't had the door latched over what would have happened? I don't want to meet my end at the Motel 6 in Decatur,Alabama! Get rid of him! He is a danger! I should have called the Police and lodged a complaint at the very least. Avoid this hotel!!!</t>
   </si>
   <si>
+    <t>900Jakey</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d629349-r149305402-Motel_6_Decatur-Decatur_Alabama.html</t>
   </si>
   <si>
@@ -504,6 +552,9 @@
     <t>This is the dirtiest motel room I have ever stayed in.  The walls are smeared with stains, the edges of the rugs are covered with dust bunnies...  and there was a dead bedbug under the telephone receiver.I normally stay at Motel 6's because of their pet policy, and I am normally quite pleased with them.  Not this one!I liked the no-charge wifi (normally Motel 6s charge extra for wifi), the room was huge, and I liked the fact that the room had a fridge and a microwave (not usual for Motel 6s).  But I would've traded all that away for some cleanliness.  Now I'm worried that I'm bringing bedbugs home with me...More</t>
   </si>
   <si>
+    <t>harryscards</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d629349-r148526257-Motel_6_Decatur-Decatur_Alabama.html</t>
   </si>
   <si>
@@ -520,6 +571,9 @@
   </si>
   <si>
     <t>The only good thing about this place is the price $35.99 with coupon. I travel for a living and use Motel 6 often especially when traveling with pet. The location is bad meaning it's not close to interstate. This used to be a Days Inn a few years ago and they bulldozed it down and built this Motel 6 from ground up. It's now as bad as the Days Inn evet was. Coffee in the morning; forget it. The doors always remain locked until noon. I killed the biggest roaches I've ever seen. The rooms are outdated and nasty. Very few travelers just local people use this place. Lots of stuff going on here if you know what I mean. I paid for a week and was stuck. Take a mature 51 year old advise and pass this place up.More</t>
+  </si>
+  <si>
+    <t>Jerry R</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d629349-r147817240-Motel_6_Decatur-Decatur_Alabama.html</t>
@@ -547,6 +601,9 @@
 The walls in this room were filthy, cobwebs along the ceiling, dirty light switch plates, missing bar lock from the door. The bathroom was no better. Mold in the tub,...The ONLY good thing about this hotel was the price.  I was travelling for business, needed to be economical on lodging, and always knew that Motel 6 was supposed to be a basic, clean place to stay for the night.  I had been reading the reviews on this particular one and had some concern, but then there were a couple that had given a glimmer of hope. In addition, this motel is listed on the Motel 6 site as being "refreshed".  You could have fooled me. Immediately on checking in, the girl in the office had an attitude.  Apparently I had disturbed her, as she was stretched out on the couch in the lobby on her phone.  I got to my room, opened the door, and the first thing that hit was the smell.  Not quite sure exactly what the smell was, but it wasn't pleasant. The carpet was filthy &amp; worn, with spots all over, furniture very dated, outlet covers missing. Not a good first impression.  2nd thing I did was pull back the bed spread.  It immediately went to the floor, because after seeing the spots on the underside of it, there's no way I was sleeping under it. Surprisingly, the sheets seemed ok,but the pillows were useless. The walls in this room were filthy, cobwebs along the ceiling, dirty light switch plates, missing bar lock from the door. The bathroom was no better. Mold in the tub, gaps between the wall &amp; the tub surround. I only had a short trip to go in the morning, and after seeing the towels &amp; the condition of the bathroom, opted to skip a shower &amp; use the one towel that was actually clean &amp; spot free to take a sponge bath.Finally on to TRY &amp; get some sleep.  If you like trains, this is the place for you.  Between 2 &amp; 3 in the morning, there were at least 3 that came through. Between the trains &amp; the people outside, it wasn't a restful night.  I tried this place based on the chance that some of the latest reviews were accurate. I really have no clue which Motel 6 they stayed at, but the side of the building I was in was horrible.  I should have driven to the next exit..I realize this is a 'value' hotel, however, this is NOT the Motel 6 of the past.  I've paid about the same in other places and have had far better quality.  I at least expect the place to be clean - especially after it's listed as "refreshed", which to me, means it's been updated to some extent.More</t>
   </si>
   <si>
+    <t>blue m</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d629349-r130373122-Motel_6_Decatur-Decatur_Alabama.html</t>
   </si>
   <si>
@@ -571,6 +628,9 @@
     <t>Find another motel. We are currently in this one, and here's what we've noticed so far:1. Room reeked of urine.2. Many unsavory folks hanging around, including two women who were dressed rather unusually, shall we say, with 5-inch heels and more perfume than I've worn—total—in my entire life.3. Bathroom door half off of hinges, can't close.4. Chain security lock on door, gone.5. Ice machine broken, went to gas station for ice.6. And smaller PITA things: TV remote is wrong one for TV, doesn't work; no ashtrays in what's supposed to be a smoking room, piles of tarps &amp; stuff on sidewalks (no work going on, just piles), no tissues, general filth. Window looks like it hasn't been cleaned in years, dirty tissues behind nightstand (was looking for outlet for computer), no lightbulb in lamp over bed, just empty socket (plugged in).But hey, it's a bed &amp; we're tired of driving and teh Net works fine so far. And teh guy who's been sitting in his car right outside teh door ever since we got her an hr ago actually looked up and said hello when I said, Hey, how you doin'.More</t>
   </si>
   <si>
+    <t>volfan42</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d629349-r124944060-Motel_6_Decatur-Decatur_Alabama.html</t>
   </si>
   <si>
@@ -592,6 +652,9 @@
     <t>I stayed at this motel during a trip in November.  The price was really what first attracted me as it was about $34 bucks a night and I was traveling on a budget.  When I checked in, the woman at the front desk was very friendly and check in was quick.  While this is an older motel, it was clean.  As might be expected with an older building, there were a few cosmetic flaws.   However, there was no smell, no dirt, and no bugs to be found in the room.  The beds were comfortable and the linens clean as well.   I'm not sure what people expect for $34 a night, but this was fine for the price and I would stay here again.More</t>
   </si>
   <si>
+    <t>J_A_Pop</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d629349-r111814543-Motel_6_Decatur-Decatur_Alabama.html</t>
   </si>
   <si>
@@ -613,6 +676,9 @@
     <t>In May 2011, my family was in Decatur.  While in Decatur, AL, we decided to stay overnight at a hotel.  Using Motel 6's website, we booked a reservation.  Later, when we checked in at the front desk, the clerk assigned us a different room type than what was reserved.  When asked why, the unfriendly teenage boy behind the front desk said that our "guaranteed" room was not available.  The hotel was the WORST that we have ever attempted to stay in.  The one ice machine was working, but the exterior button was missing (To get ice, you had to stick your finger in the hole where the button was supposed to be and press something inside the ice machine.).  The room itself had wires instead of a smoke detector.  The towels were stained, the carpet for the baseboards were piled up in one corner of the room, the walls were dirty, and the wall plate for an outlet was missing.  Also, in order to use the room's phone to call the front desk, you have to use a fingernail to pull up and hold up the "hangup button" on the phone's base (This is the first time that I have ever encountered this type of problem at a motel.).  We went to the front desk to leave the hotel and to ask for a refund.  Before going back to the front desk, I took pictures of our hotel room just...In May 2011, my family was in Decatur.  While in Decatur, AL, we decided to stay overnight at a hotel.  Using Motel 6's website, we booked a reservation.  Later, when we checked in at the front desk, the clerk assigned us a different room type than what was reserved.  When asked why, the unfriendly teenage boy behind the front desk said that our "guaranteed" room was not available.  The hotel was the WORST that we have ever attempted to stay in.  The one ice machine was working, but the exterior button was missing (To get ice, you had to stick your finger in the hole where the button was supposed to be and press something inside the ice machine.).  The room itself had wires instead of a smoke detector.  The towels were stained, the carpet for the baseboards were piled up in one corner of the room, the walls were dirty, and the wall plate for an outlet was missing.  Also, in order to use the room's phone to call the front desk, you have to use a fingernail to pull up and hold up the "hangup button" on the phone's base (This is the first time that I have ever encountered this type of problem at a motel.).  We went to the front desk to leave the hotel and to ask for a refund.  Before going back to the front desk, I took pictures of our hotel room just in case the teenage hotel clerk refused our request for a refund.  Besides the location, I actually cannot think of one positive thing about this motel.  Since I already took pictures of our hotel room, I decided to include them in my review.  I have stayed in Motel 6 locations that were pretty decent.  This was not one of them.More</t>
   </si>
   <si>
+    <t>EdwinCG</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d629349-r71288197-Motel_6_Decatur-Decatur_Alabama.html</t>
   </si>
   <si>
@@ -629,6 +695,9 @@
   </si>
   <si>
     <t>July 2010</t>
+  </si>
+  <si>
+    <t>s2pigeau</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d629349-r35140604-Motel_6_Decatur-Decatur_Alabama.html</t>
@@ -1151,43 +1220,47 @@
       <c r="A2" t="n">
         <v>49002</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>169352</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1201,50 +1274,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>49002</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>10087</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1264,50 +1341,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>49002</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>169353</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1321,50 +1402,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>49002</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>169354</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="O5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1376,56 +1461,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="X5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="Y5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>49002</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>169355</v>
+      </c>
+      <c r="C6" t="s">
+        <v>82</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="J6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="L6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="M6" t="n">
         <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="O6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1437,56 +1526,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="X6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Y6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>49002</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>169356</v>
+      </c>
+      <c r="C7" t="s">
+        <v>92</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="J7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="K7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="L7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="O7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="n">
@@ -1502,56 +1595,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="X7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="Y7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>49002</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>11469</v>
+      </c>
+      <c r="C8" t="s">
+        <v>102</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="J8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="K8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="L8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="O8" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="n">
@@ -1571,50 +1668,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>49002</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>169357</v>
+      </c>
+      <c r="C9" t="s">
+        <v>109</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="J9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="K9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="L9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="M9" t="n">
         <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="O9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="n">
@@ -1632,41 +1733,45 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>49002</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>169358</v>
+      </c>
+      <c r="C10" t="s">
+        <v>115</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="J10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="K10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="L10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
@@ -1693,47 +1798,51 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="X10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="Y10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>49002</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>169359</v>
+      </c>
+      <c r="C11" t="s">
+        <v>124</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="J11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="K11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="L11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
@@ -1762,50 +1871,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>49002</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>169360</v>
+      </c>
+      <c r="C12" t="s">
+        <v>130</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="J12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="K12" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="L12" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="O12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P12" t="n">
         <v>1</v>
@@ -1829,50 +1942,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>49002</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>10052</v>
+      </c>
+      <c r="C13" t="s">
+        <v>137</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="J13" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="K13" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="L13" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="O13" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P13" t="n">
         <v>1</v>
@@ -1894,56 +2011,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="X13" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="Y13" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>49002</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>169361</v>
+      </c>
+      <c r="C14" t="s">
+        <v>147</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="J14" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="K14" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="L14" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="M14" t="n">
         <v>2</v>
       </c>
       <c r="N14" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="O14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P14" t="n">
         <v>2</v>
@@ -1965,56 +2086,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="X14" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="Y14" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>49002</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>47213</v>
+      </c>
+      <c r="C15" t="s">
+        <v>157</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="J15" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="K15" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="L15" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="M15" t="n">
         <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="O15" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P15" t="n">
         <v>3</v>
@@ -2038,41 +2163,45 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>49002</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>169362</v>
+      </c>
+      <c r="C16" t="s">
+        <v>164</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="J16" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="K16" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="L16" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="M16" t="n">
         <v>1</v>
@@ -2101,50 +2230,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>49002</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>169363</v>
+      </c>
+      <c r="C17" t="s">
+        <v>170</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="J17" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="K17" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="L17" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="O17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P17" t="n">
         <v>2</v>
@@ -2168,41 +2301,45 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>49002</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>169364</v>
+      </c>
+      <c r="C18" t="s">
+        <v>178</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="J18" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="K18" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="L18" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
@@ -2231,50 +2368,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>49002</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>5769</v>
+      </c>
+      <c r="C19" t="s">
+        <v>185</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="J19" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="K19" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="L19" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="O19" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P19" t="n">
         <v>2</v>
@@ -2298,50 +2439,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>49002</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>169365</v>
+      </c>
+      <c r="C20" t="s">
+        <v>193</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="J20" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="K20" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="L20" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="O20" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="P20" t="n">
         <v>2</v>
@@ -2365,50 +2510,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>49002</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>169366</v>
+      </c>
+      <c r="C21" t="s">
+        <v>202</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="J21" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="K21" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="L21" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="O21" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P21" t="n">
         <v>5</v>
@@ -2432,50 +2581,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>49002</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>169367</v>
+      </c>
+      <c r="C22" t="s">
+        <v>210</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="J22" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="K22" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="L22" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="O22" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P22" t="n">
         <v>1</v>
@@ -2495,50 +2648,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>49002</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>169368</v>
+      </c>
+      <c r="C23" t="s">
+        <v>218</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="J23" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="K23" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="L23" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="O23" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -2552,50 +2709,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>49002</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>169369</v>
+      </c>
+      <c r="C24" t="s">
+        <v>225</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>204</v>
+        <v>227</v>
       </c>
       <c r="J24" t="s">
-        <v>205</v>
+        <v>228</v>
       </c>
       <c r="K24" t="s">
-        <v>206</v>
+        <v>229</v>
       </c>
       <c r="L24" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="M24" t="n">
         <v>2</v>
       </c>
       <c r="N24" t="s">
-        <v>208</v>
+        <v>231</v>
       </c>
       <c r="O24" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P24" t="n">
         <v>1</v>
@@ -2617,7 +2778,7 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_567.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_567.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="315">
   <si>
     <t>STR#</t>
   </si>
@@ -147,21 +147,84 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>cprovince</t>
-  </si>
-  <si>
-    <t>06/15/2018</t>
+    <t>08/26/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d629349-r569886244-Motel_6_Decatur-Decatur_Alabama.html</t>
+  </si>
+  <si>
+    <t>30477</t>
+  </si>
+  <si>
+    <t>629349</t>
+  </si>
+  <si>
+    <t>569886244</t>
+  </si>
+  <si>
+    <t>03/31/2018</t>
+  </si>
+  <si>
+    <t>Horrific motel</t>
+  </si>
+  <si>
+    <t>As we were searching around for hotels, none of them were open so we kept searching and eventually found this place. The front desk person was very kind and and understanding young man and so far everything was going fine. The outside of the building wasn’t clean but I not enough to drive you away. As we entered the room it was a huge bed that was uncomfortable but the room wasn’t horrible until I went into the bathroom and it looked like it hadn’t been cleaned in a while. So as I went to brush my teeth a creepy crawler scattered across the sink. As I examined the critter I had realized it was a female roach carrying her eggs. So when I went to look more around I found a whole pile of roaches and that’s when we left. Luckily the man at the front desk gave us our money back and we went to stay down the street at another hotel. This hotel is not worth your time at all nor your money. MoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, Guest Relations Manager at Motel 6 Decatur, responded to this reviewResponded April 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 2, 2018</t>
+  </si>
+  <si>
+    <t>As we were searching around for hotels, none of them were open so we kept searching and eventually found this place. The front desk person was very kind and and understanding young man and so far everything was going fine. The outside of the building wasn’t clean but I not enough to drive you away. As we entered the room it was a huge bed that was uncomfortable but the room wasn’t horrible until I went into the bathroom and it looked like it hadn’t been cleaned in a while. So as I went to brush my teeth a creepy crawler scattered across the sink. As I examined the critter I had realized it was a female roach carrying her eggs. So when I went to look more around I found a whole pile of roaches and that’s when we left. Luckily the man at the front desk gave us our money back and we went to stay down the street at another hotel. This hotel is not worth your time at all nor your money. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d629349-r516238167-Motel_6_Decatur-Decatur_Alabama.html</t>
+  </si>
+  <si>
+    <t>516238167</t>
+  </si>
+  <si>
+    <t>08/22/2017</t>
+  </si>
+  <si>
+    <t>Property is not well maintained</t>
+  </si>
+  <si>
+    <t>I paid $46.79 (with tax) to stay here the night of August 21, 2017. I was on my way back to Texas after traveling to Nashville, Tennessee to see the solar eclipse. I stay in Motel 6 almost exclusively when I travel and have come to expect a certain standard of maintenance and cleanliness. The other Motel 6 properties I stayed in this month (in Texas and Arkansas) were slightly more expensive, but much better maintained.
+I understand the concept of "You get what you pay for", but this one is so much worse than other Motel 6 properties that I want to document it with this review and the attached photos.
+There is a large amount of trash in the parking spaces in front of the rooms -- Q-tips, toothbrushes, cigarette butts, and even used hypodermic needles. This is a safety hazard, especially if you are traveling with children who might pick up one of these items. It's obvious that they don't sweep the parking lot every day.
+Lamps in the room don't have light bulbs and some don't even have shades.
+There is a large hole in the bathroom door.
+The lid to the toilet tank has a large piece missing.
+The shower head has tape wrapped around it. I don't know whether this is to hold it on, or to prevent leaks, but I do know that it would not be difficult to just replace it. I...I paid $46.79 (with tax) to stay here the night of August 21, 2017. I was on my way back to Texas after traveling to Nashville, Tennessee to see the solar eclipse. I stay in Motel 6 almost exclusively when I travel and have come to expect a certain standard of maintenance and cleanliness. The other Motel 6 properties I stayed in this month (in Texas and Arkansas) were slightly more expensive, but much better maintained.I understand the concept of "You get what you pay for", but this one is so much worse than other Motel 6 properties that I want to document it with this review and the attached photos.There is a large amount of trash in the parking spaces in front of the rooms -- Q-tips, toothbrushes, cigarette butts, and even used hypodermic needles. This is a safety hazard, especially if you are traveling with children who might pick up one of these items. It's obvious that they don't sweep the parking lot every day.Lamps in the room don't have light bulbs and some don't even have shades.There is a large hole in the bathroom door.The lid to the toilet tank has a large piece missing.The shower head has tape wrapped around it. I don't know whether this is to hold it on, or to prevent leaks, but I do know that it would not be difficult to just replace it. I have owned and managed rental properties and this is not something I would let go before renting the unit again.On the positive side, the room did have a fridge and microwave, and I had no trouble getting the wifi to work. This room might be a good option for someone working in Decatur for a certain number of weeks or someone on a limited budget who does not have other options. If you are traveling with family, don't expect this Motel 6 to be as nice as others you may have stayed in.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team Member at Motel 6 Decatur, responded to this reviewResponded August 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 29, 2017</t>
+  </si>
+  <si>
+    <t>I paid $46.79 (with tax) to stay here the night of August 21, 2017. I was on my way back to Texas after traveling to Nashville, Tennessee to see the solar eclipse. I stay in Motel 6 almost exclusively when I travel and have come to expect a certain standard of maintenance and cleanliness. The other Motel 6 properties I stayed in this month (in Texas and Arkansas) were slightly more expensive, but much better maintained.
+I understand the concept of "You get what you pay for", but this one is so much worse than other Motel 6 properties that I want to document it with this review and the attached photos.
+There is a large amount of trash in the parking spaces in front of the rooms -- Q-tips, toothbrushes, cigarette butts, and even used hypodermic needles. This is a safety hazard, especially if you are traveling with children who might pick up one of these items. It's obvious that they don't sweep the parking lot every day.
+Lamps in the room don't have light bulbs and some don't even have shades.
+There is a large hole in the bathroom door.
+The lid to the toilet tank has a large piece missing.
+The shower head has tape wrapped around it. I don't know whether this is to hold it on, or to prevent leaks, but I do know that it would not be difficult to just replace it. I...I paid $46.79 (with tax) to stay here the night of August 21, 2017. I was on my way back to Texas after traveling to Nashville, Tennessee to see the solar eclipse. I stay in Motel 6 almost exclusively when I travel and have come to expect a certain standard of maintenance and cleanliness. The other Motel 6 properties I stayed in this month (in Texas and Arkansas) were slightly more expensive, but much better maintained.I understand the concept of "You get what you pay for", but this one is so much worse than other Motel 6 properties that I want to document it with this review and the attached photos.There is a large amount of trash in the parking spaces in front of the rooms -- Q-tips, toothbrushes, cigarette butts, and even used hypodermic needles. This is a safety hazard, especially if you are traveling with children who might pick up one of these items. It's obvious that they don't sweep the parking lot every day.Lamps in the room don't have light bulbs and some don't even have shades.There is a large hole in the bathroom door.The lid to the toilet tank has a large piece missing.The shower head has tape wrapped around it. I don't know whether this is to hold it on, or to prevent leaks, but I do know that it would not be difficult to just replace it. I have owned and managed rental properties and this is not something I would let go before renting the unit again.On the positive side, the room did have a fridge and microwave, and I had no trouble getting the wifi to work. This room might be a good option for someone working in Decatur for a certain number of weeks or someone on a limited budget who does not have other options. If you are traveling with family, don't expect this Motel 6 to be as nice as others you may have stayed in.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d629349-r470058436-Motel_6_Decatur-Decatur_Alabama.html</t>
   </si>
   <si>
-    <t>30477</t>
-  </si>
-  <si>
-    <t>629349</t>
-  </si>
-  <si>
     <t>470058436</t>
   </si>
   <si>
@@ -177,15 +240,9 @@
     <t>March 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>This place is not worth your money. Pay the extra money to stay somewhere else. I booked a nonsmoking room and there were several cigarette burns in the sheets and comforter. The telephone buttons were missing making it inoperable. The noise throughout the night was awful, so even if you just need a place to catch some sleep, you can't because you can hear everything through the paper thin walls. The management is giving a terrible reputation to Motel 6 and if I were Motel 6, I would break the franchise agreement with these owners. There was never anyone at the front desk. The lobby restroom looked like it had not been attended to in months. Avoid this hell hole. More</t>
   </si>
   <si>
-    <t>Christine T</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d629349-r398825632-Motel_6_Decatur-Decatur_Alabama.html</t>
   </si>
   <si>
@@ -210,9 +267,6 @@
     <t>Scary doesn't even begin to describe our experience. I've traveled a lot in my life and have stayed in an assortment of hotels and there have been a few that I still shake my head about, but this was the first time I've ever requested my money back and left due to the condition of the room. First, there was something wet and sticky all over the floor and the room had a musty odor that I hoped would lessen once the air conditioner kicked in. The bed looked like it was ready to collapse in upon itself. I pulled the comforter back to inspect the sheets, and noticed the comforter had obviously not been changed in some time - it was filthy and had stains and cigarette burn holes in it (and it was a non-smoking room). When I walked into the bathroom, there was hair on the toilet seat. Within the first 10 minutes in this room, I'd been bitten by a biting fly twice and was beginning to wonder what kind of vermin would crawl on me once I sat down on the bed. Then the phone rang and someone claiming to be from management started asking to verify some personal information and wanting to know how long we were staying. We told them we'd stop back by the office and they could verify whatever they needed to then. Walked down to the front desk, the clerk...Scary doesn't even begin to describe our experience. I've traveled a lot in my life and have stayed in an assortment of hotels and there have been a few that I still shake my head about, but this was the first time I've ever requested my money back and left due to the condition of the room. First, there was something wet and sticky all over the floor and the room had a musty odor that I hoped would lessen once the air conditioner kicked in. The bed looked like it was ready to collapse in upon itself. I pulled the comforter back to inspect the sheets, and noticed the comforter had obviously not been changed in some time - it was filthy and had stains and cigarette burn holes in it (and it was a non-smoking room). When I walked into the bathroom, there was hair on the toilet seat. Within the first 10 minutes in this room, I'd been bitten by a biting fly twice and was beginning to wonder what kind of vermin would crawl on me once I sat down on the bed. Then the phone rang and someone claiming to be from management started asking to verify some personal information and wanting to know how long we were staying. We told them we'd stop back by the office and they could verify whatever they needed to then. Walked down to the front desk, the clerk asserted that no one by that name works for this hotel, pretty sure he was a scam artist looking for a score. Walked back to the room, through the smell of stale beer in the stairwells. Back inside, got bit again, killed a bug on the wall. Decided we just couldn't handle the filth, bugs and uncertainty about whether our car was going to still be in the parking lot come morning. The one positive I can say is that the clerk handled things as well as she could under the circumstances. She issued the refund quickly and made a note of the complaints. I've stayed in Motel 6 locations before that were clean and well maintained, so I know these conditions were not just because it was a budget hotel.More</t>
   </si>
   <si>
-    <t>michellegriffin40</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d629349-r390710846-Motel_6_Decatur-Decatur_Alabama.html</t>
   </si>
   <si>
@@ -231,7 +285,43 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
-    <t>Otto J</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d629349-r388991211-Motel_6_Decatur-Decatur_Alabama.html</t>
+  </si>
+  <si>
+    <t>388991211</t>
+  </si>
+  <si>
+    <t>07/04/2016</t>
+  </si>
+  <si>
+    <t>Decent</t>
+  </si>
+  <si>
+    <t>The room was clean, the beds comfortable enough, though uncertain of cleanliness. The decor was pleasantly bright and nice. The motel was right off the main highway/street, so a bit rough overall. The bathroom door was broken and wouldn't close, the toilet wobbled dangerously and the bathtub was at a pretty amazing slant. But you know what? We chose motel six cause all we did was sleep and shower there. We were going to and coming from and this was good enough. If you're looking for Hilton, go there.</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d629349-r343893925-Motel_6_Decatur-Decatur_Alabama.html</t>
+  </si>
+  <si>
+    <t>343893925</t>
+  </si>
+  <si>
+    <t>01/30/2016</t>
+  </si>
+  <si>
+    <t>We've stayed here many times...</t>
+  </si>
+  <si>
+    <t>Folks, this a Motel 6. It's a good place to stay when you're on the way to your next destination. Especially when you need a pet friendly room. My rooms have always been clean enough. The comments I've seen about this place must've been written by people that are used to checking in to a $39 a night Hilton.</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d629349-r304725822-Motel_6_Decatur-Decatur_Alabama.html</t>
@@ -252,9 +342,6 @@
     <t>July 2015</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>6Team, brand expericened team member at Motel 6 Decatur, responded to this reviewResponded August 31, 2015</t>
   </si>
   <si>
@@ -264,9 +351,6 @@
     <t>Forced to stay 2 nights due to truck breakdown.  First night had to fend off flies, went to front desk to get flyswatter they were that bad.  Second night I asked for different room and had repeat of fly problem.  Bed was well wornMore</t>
   </si>
   <si>
-    <t>JTlewis4763</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d629349-r284571083-Motel_6_Decatur-Decatur_Alabama.html</t>
   </si>
   <si>
@@ -294,9 +378,6 @@
     <t>Stayed here 1 night while traveling, and since we have a small dog, it's convenient.   Definitely not one of the better ones.  Musty smell, a little scary on the area as well.  Not very clean.  Desk clerk was personable though.  Won't make it a stop next time.More</t>
   </si>
   <si>
-    <t>buckroy</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d629349-r274984047-Motel_6_Decatur-Decatur_Alabama.html</t>
   </si>
   <si>
@@ -324,7 +405,46 @@
     <t>Filthy, bleak, ill conceived, bad location, broken fixtures, impacted dirt, mold growing, smelly, hard matresses, tube tvs, no alarm clock; all this for the same price you would pay at a brand new, nicely appointed Motel 6.I'll sleep in my truck before I stay there again.More</t>
   </si>
   <si>
-    <t>Amy B</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d629349-r266455885-Motel_6_Decatur-Decatur_Alabama.html</t>
+  </si>
+  <si>
+    <t>266455885</t>
+  </si>
+  <si>
+    <t>04/18/2015</t>
+  </si>
+  <si>
+    <t>Terrible and rude service</t>
+  </si>
+  <si>
+    <t>My family and I have had to stay for the past 2 weeks, they're dirty and definitely not pet friendly, they yell at us when we take our dog out, they will walk in your room for house keeping even if you tell them no or don't answer right away. hardly ever answer the phone and are hardly ever in the front desk area, when we ask for clean sheets or towels they give you problems and are so terribly rude. I would no recommend staying here at all it was the worse motel 6 I've been to.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Decatur, responded to this reviewResponded April 20, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 20, 2015</t>
+  </si>
+  <si>
+    <t>My family and I have had to stay for the past 2 weeks, they're dirty and definitely not pet friendly, they yell at us when we take our dog out, they will walk in your room for house keeping even if you tell them no or don't answer right away. hardly ever answer the phone and are hardly ever in the front desk area, when we ask for clean sheets or towels they give you problems and are so terribly rude. I would no recommend staying here at all it was the worse motel 6 I've been to.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d629349-r264197273-Motel_6_Decatur-Decatur_Alabama.html</t>
+  </si>
+  <si>
+    <t>264197273</t>
+  </si>
+  <si>
+    <t>04/07/2015</t>
+  </si>
+  <si>
+    <t>Met expectations for such a low rate</t>
+  </si>
+  <si>
+    <t>Pretty much what we expected. Room was dated but clean enough. Included TV with good reception, microwave, refrig and decent WIFI. Bath room needs some work.  Soap and towels provided, no tissue, cups, ice, food or coffee. (Waffel House across the street)</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d629349-r257812584-Motel_6_Decatur-Decatur_Alabama.html</t>
@@ -345,9 +465,6 @@
     <t>February 2015</t>
   </si>
   <si>
-    <t>wraithleaderx</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d629349-r256389204-Motel_6_Decatur-Decatur_Alabama.html</t>
   </si>
   <si>
@@ -363,9 +480,6 @@
     <t>This is one of the worst hotels I have ever stayed at and I was only there because of being stranded in an ice storm. The floor in my room was dirty, the ceiling was leaking water onto the other bed. The ceiling was falling apart in several places. The place honestly only deserves one star but I gave it two because the hotel staff are very friendly and helpful.</t>
   </si>
   <si>
-    <t>medicboo</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d629349-r236133137-Motel_6_Decatur-Decatur_Alabama.html</t>
   </si>
   <si>
@@ -390,7 +504,46 @@
     <t>We were told they were pet friendly!! NOT!! We took our dogs out to potty where they told us, had manager of resturaunt knock on my door to say it was not hotel property!! Then when we checked in asked for smoking room. That night general manager called our room and said it was a handicap room. We had to stay an extra week, went to renew, were told they wouldn't rent to us becausewe had dogs and were smoking in a non ssmoking room. General manager is rude, housekeeping doesn't speak English and are VERY RUDE!!  What happened to customer service???More</t>
   </si>
   <si>
-    <t>lindsays17</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d629349-r206029977-Motel_6_Decatur-Decatur_Alabama.html</t>
+  </si>
+  <si>
+    <t>206029977</t>
+  </si>
+  <si>
+    <t>05/18/2014</t>
+  </si>
+  <si>
+    <t>Worst ever</t>
+  </si>
+  <si>
+    <t>I am sitting in a dark room somehow seeing daylight out the crack of the door.  Sorry correction gaping whole in the door. Rain seems to come through that whole and management says that mold doesn't form in one day.  Yes she i'd correct but this hole and this mold been here for months.  The management argues with customers calls them liars... (Went to management between 2am and 4 no one answered but they say they were there yeah and the 7 other men there are liars as well). Rather if this is franchise or not its still motel 6 name they need to check this place out and close it! Now!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>I am sitting in a dark room somehow seeing daylight out the crack of the door.  Sorry correction gaping whole in the door. Rain seems to come through that whole and management says that mold doesn't form in one day.  Yes she i'd correct but this hole and this mold been here for months.  The management argues with customers calls them liars... (Went to management between 2am and 4 no one answered but they say they were there yeah and the 7 other men there are liars as well). Rather if this is franchise or not its still motel 6 name they need to check this place out and close it! Now!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d629349-r205579513-Motel_6_Decatur-Decatur_Alabama.html</t>
+  </si>
+  <si>
+    <t>205579513</t>
+  </si>
+  <si>
+    <t>05/14/2014</t>
+  </si>
+  <si>
+    <t>Even the drug dealers won't stay here.... because the cops come and pick them up...</t>
+  </si>
+  <si>
+    <t>If you stay here, you'd better hope they don't put you in a former Meth LabDECATUR (WHNT), Ala. – Police arrested two people last night after discovering an active meth lab in their hotel room.The bust occurred at the Motel 6 on 6th Avenue near Church Street.Police received a call about possible drug activity in a motel room located at the back of the complex.When Officers opened the door they found a working meth lab.Police arrested the two people and took them to the Decatur City Jail.The Morgan County Drug Task Force, along with Decatur Fire and Rescue were called to decontaminate the room and dismantle the meth lab.No other rooms were evacuated during the bust.MoreShow less</t>
+  </si>
+  <si>
+    <t>If you stay here, you'd better hope they don't put you in a former Meth LabDECATUR (WHNT), Ala. – Police arrested two people last night after discovering an active meth lab in their hotel room.The bust occurred at the Motel 6 on 6th Avenue near Church Street.Police received a call about possible drug activity in a motel room located at the back of the complex.When Officers opened the door they found a working meth lab.Police arrested the two people and took them to the Decatur City Jail.The Morgan County Drug Task Force, along with Decatur Fire and Rescue were called to decontaminate the room and dismantle the meth lab.No other rooms were evacuated during the bust.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d629349-r198053542-Motel_6_Decatur-Decatur_Alabama.html</t>
@@ -408,9 +561,6 @@
     <t xml:space="preserve">We drove over 900 miles and we're tired. Stopped here for night. Wish we had kept going. The room was filthy. The remains of someone's bowel movement still on toilet. Dead roaches on floor and woke up to a massive live roach on  bathroom wall. I couldn't even take shower because I was afraid roaches were going to drop on me. This place should be condemned. We stay in a different hotel every night due to business and this is the worst! </t>
   </si>
   <si>
-    <t>maryandgary2014</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d629349-r197293926-Motel_6_Decatur-Decatur_Alabama.html</t>
   </si>
   <si>
@@ -429,9 +579,6 @@
     <t>March 2014</t>
   </si>
   <si>
-    <t>Richard K</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d629349-r184988937-Motel_6_Decatur-Decatur_Alabama.html</t>
   </si>
   <si>
@@ -459,7 +606,49 @@
     <t>IF you have to stay at this dump you better have your Glock on the night stand! I have never stayed at a place as unsafe and Nasty in my like. Every room around us was a all night party. Loud trucks and cars in and out all night long parking for a few minutes and then leaving and slamming doors and raising cane. There is no place to park a truck and boat, parking looks nothing like what they show online. BEWARE, DO NOT STAY THERE !!!!!!More</t>
   </si>
   <si>
-    <t>LonestarMemphis</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d629349-r170063266-Motel_6_Decatur-Decatur_Alabama.html</t>
+  </si>
+  <si>
+    <t>170063266</t>
+  </si>
+  <si>
+    <t>07/30/2013</t>
+  </si>
+  <si>
+    <t>Filthy, filthy, filthy</t>
+  </si>
+  <si>
+    <t>I stopped here with my young son on a cross country trip because they accept dogs, and I had stayed in Motel 6's each night of the trip (3 different locals) and all were nice. The room at this Decatur Motel 6 was filthy! I felt like I was going to catch some disease the whole time I was there. The floors were so nasty I didn't want my dog sleeping on them. The bathroom was so dirty I would not let my son take a bath- I didn't even shower. There were brown smudges on the sheets and one of the towels! I laid out one of our own blankets across the bed to sleep on then left it there so I wouldn't bring the contamination with me. To top it off there were creepy people standing out in the parking lot next door watching us and a crack pipe in the flower bed just outside the door to our room. Never, never stay here! I stay in the Decatur area quite often, but I will NEVER even slow down for this motel again!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>Motel6, Public Relations Manager at Motel 6 Decatur, responded to this reviewResponded August 4, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 4, 2013</t>
+  </si>
+  <si>
+    <t>I stopped here with my young son on a cross country trip because they accept dogs, and I had stayed in Motel 6's each night of the trip (3 different locals) and all were nice. The room at this Decatur Motel 6 was filthy! I felt like I was going to catch some disease the whole time I was there. The floors were so nasty I didn't want my dog sleeping on them. The bathroom was so dirty I would not let my son take a bath- I didn't even shower. There were brown smudges on the sheets and one of the towels! I laid out one of our own blankets across the bed to sleep on then left it there so I wouldn't bring the contamination with me. To top it off there were creepy people standing out in the parking lot next door watching us and a crack pipe in the flower bed just outside the door to our room. Never, never stay here! I stay in the Decatur area quite often, but I will NEVER even slow down for this motel again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d629349-r168583608-Motel_6_Decatur-Decatur_Alabama.html</t>
+  </si>
+  <si>
+    <t>168583608</t>
+  </si>
+  <si>
+    <t>07/22/2013</t>
+  </si>
+  <si>
+    <t>Ilegal drugs found in room</t>
+  </si>
+  <si>
+    <t>My daughter and I was on a trip to FL and got tired stopped to get some rest. Inside room there was Pot on the dresser with 2 dirty cups went to a second room and the bathroom door had a huge whole in it. Needless to say we asked for a refund and left. Then the manager has the nerve to send me a generic email apologizing never once asking about specific issues.</t>
+  </si>
+  <si>
+    <t>July 2013</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d629349-r167870846-Motel_6_Decatur-Decatur_Alabama.html</t>
@@ -477,9 +666,6 @@
     <t>nobody answered front desk phone on multiple occasions.ice machine didn't work for duration of stay.power outlet didn't work.heavily stained carpet.creaky bed.very bad pillows.door difficult to open and close.no kleenex.broken air conditioning units littering hallway.I travel 100% of my life. I'm not picky or anything. but this place was bad. $50/night with tax for 2 adults and dog.MoreShow less</t>
   </si>
   <si>
-    <t>July 2013</t>
-  </si>
-  <si>
     <t>Motel6, Public Relations Manager at Motel 6 Decatur, responded to this reviewResponded July 22, 2013</t>
   </si>
   <si>
@@ -489,9 +675,6 @@
     <t>nobody answered front desk phone on multiple occasions.ice machine didn't work for duration of stay.power outlet didn't work.heavily stained carpet.creaky bed.very bad pillows.door difficult to open and close.no kleenex.broken air conditioning units littering hallway.I travel 100% of my life. I'm not picky or anything. but this place was bad. $50/night with tax for 2 adults and dog.More</t>
   </si>
   <si>
-    <t>Rita R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d629349-r166847654-Motel_6_Decatur-Decatur_Alabama.html</t>
   </si>
   <si>
@@ -510,9 +693,6 @@
     <t>It was cheap, convenient and they take dogs.  We just wanted a place to sleep after a long day's drive in pouring rain.  We didn't expect much at that price and were not surprised.  You could see that an effort had been made to vacuum the ugly, stained and stinky carpet.  The sheets reeked of bleach but at least they were washed.  The bathroom was clean.  All in all a bit on the seedy side but adequate.  The real kicker was the crazy woman outside screaming in the middle of the night and talking nonstop at the top of her lungs.  I expected the men in white coats any time.  After a while someone (owner? manager?) did come and tell her to leave.  It took a while for the commotion to cease but it finally did.More</t>
   </si>
   <si>
-    <t>195508</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d629349-r158956903-Motel_6_Decatur-Decatur_Alabama.html</t>
   </si>
   <si>
@@ -528,7 +708,40 @@
     <t>I am the lady that the manager tried to open her door at 3:00am. I am still having bad dreams about this incident . He knew a single woman was registered in that room! What were his intentions? He is one sorry example for a manager!! If I hadn't had the door latched over what would have happened? I don't want to meet my end at the Motel 6 in Decatur,Alabama! Get rid of him! He is a danger! I should have called the Police and lodged a complaint at the very least. Avoid this hotel!!!</t>
   </si>
   <si>
-    <t>900Jakey</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d629349-r155445215-Motel_6_Decatur-Decatur_Alabama.html</t>
+  </si>
+  <si>
+    <t>155445215</t>
+  </si>
+  <si>
+    <t>03/23/2013</t>
+  </si>
+  <si>
+    <t>Stay away at all costs. Not worth it!!!</t>
+  </si>
+  <si>
+    <t>I was woke up at 3:00AM by a pounding on what I thought was the neighbor's door. Next thing I hear is someone trying to enter my room with a key card. I screamed the man at the door said who is this I gave him my last name and asked who he is Manager he said I need to come to the office and pay for my room I got dressed went and paid Every hotel I have ever been they take ur card and charges r made when u check out I LEFT that morning! RUDE RUDE RUDE I reported this incident to Corporate stay as far away from this hotel that U  can, unless u want someone trying to enter ur room at 3:00AM!MoreShow less</t>
+  </si>
+  <si>
+    <t>I was woke up at 3:00AM by a pounding on what I thought was the neighbor's door. Next thing I hear is someone trying to enter my room with a key card. I screamed the man at the door said who is this I gave him my last name and asked who he is Manager he said I need to come to the office and pay for my room I got dressed went and paid Every hotel I have ever been they take ur card and charges r made when u check out I LEFT that morning! RUDE RUDE RUDE I reported this incident to Corporate stay as far away from this hotel that U  can, unless u want someone trying to enter ur room at 3:00AM!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d629349-r149491056-Motel_6_Decatur-Decatur_Alabama.html</t>
+  </si>
+  <si>
+    <t>149491056</t>
+  </si>
+  <si>
+    <t>01/12/2013</t>
+  </si>
+  <si>
+    <t>Beyond reprehensible</t>
+  </si>
+  <si>
+    <t>Couldn't believe the state of this room.  Had to stay here for one night because of their open pet policy, unfortunately.  The walls and rug were filthy, and I found two dead cockroaches on the floor beside the bed.  Sprayed myself with bug spray before I went to sleep.The inside of the microwave hadn't been cleaned in a long time.  This was horrible.  I wonder if the health department should be alerted...</t>
+  </si>
+  <si>
+    <t>January 2013</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d629349-r149305402-Motel_6_Decatur-Decatur_Alabama.html</t>
@@ -546,15 +759,9 @@
     <t>This is the dirtiest motel room I have ever stayed in.  The walls are smeared with stains, the edges of the rugs are covered with dust bunnies...  and there was a dead bedbug under the telephone receiver.I normally stay at Motel 6's because of their pet policy, and I am normally quite pleased with them.  Not this one!I liked the no-charge wifi (normally Motel 6s charge extra for wifi), the room was huge, and I liked the fact that the room had a fridge and a microwave (not usual for Motel 6s).  But I would've traded all that away for some cleanliness.  Now I'm worried that I'm bringing bedbugs home with me...MoreShow less</t>
   </si>
   <si>
-    <t>January 2013</t>
-  </si>
-  <si>
     <t>This is the dirtiest motel room I have ever stayed in.  The walls are smeared with stains, the edges of the rugs are covered with dust bunnies...  and there was a dead bedbug under the telephone receiver.I normally stay at Motel 6's because of their pet policy, and I am normally quite pleased with them.  Not this one!I liked the no-charge wifi (normally Motel 6s charge extra for wifi), the room was huge, and I liked the fact that the room had a fridge and a microwave (not usual for Motel 6s).  But I would've traded all that away for some cleanliness.  Now I'm worried that I'm bringing bedbugs home with me...More</t>
   </si>
   <si>
-    <t>harryscards</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d629349-r148526257-Motel_6_Decatur-Decatur_Alabama.html</t>
   </si>
   <si>
@@ -571,9 +778,6 @@
   </si>
   <si>
     <t>The only good thing about this place is the price $35.99 with coupon. I travel for a living and use Motel 6 often especially when traveling with pet. The location is bad meaning it's not close to interstate. This used to be a Days Inn a few years ago and they bulldozed it down and built this Motel 6 from ground up. It's now as bad as the Days Inn evet was. Coffee in the morning; forget it. The doors always remain locked until noon. I killed the biggest roaches I've ever seen. The rooms are outdated and nasty. Very few travelers just local people use this place. Lots of stuff going on here if you know what I mean. I paid for a week and was stuck. Take a mature 51 year old advise and pass this place up.More</t>
-  </si>
-  <si>
-    <t>Jerry R</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d629349-r147817240-Motel_6_Decatur-Decatur_Alabama.html</t>
@@ -601,7 +805,40 @@
 The walls in this room were filthy, cobwebs along the ceiling, dirty light switch plates, missing bar lock from the door. The bathroom was no better. Mold in the tub,...The ONLY good thing about this hotel was the price.  I was travelling for business, needed to be economical on lodging, and always knew that Motel 6 was supposed to be a basic, clean place to stay for the night.  I had been reading the reviews on this particular one and had some concern, but then there were a couple that had given a glimmer of hope. In addition, this motel is listed on the Motel 6 site as being "refreshed".  You could have fooled me. Immediately on checking in, the girl in the office had an attitude.  Apparently I had disturbed her, as she was stretched out on the couch in the lobby on her phone.  I got to my room, opened the door, and the first thing that hit was the smell.  Not quite sure exactly what the smell was, but it wasn't pleasant. The carpet was filthy &amp; worn, with spots all over, furniture very dated, outlet covers missing. Not a good first impression.  2nd thing I did was pull back the bed spread.  It immediately went to the floor, because after seeing the spots on the underside of it, there's no way I was sleeping under it. Surprisingly, the sheets seemed ok,but the pillows were useless. The walls in this room were filthy, cobwebs along the ceiling, dirty light switch plates, missing bar lock from the door. The bathroom was no better. Mold in the tub, gaps between the wall &amp; the tub surround. I only had a short trip to go in the morning, and after seeing the towels &amp; the condition of the bathroom, opted to skip a shower &amp; use the one towel that was actually clean &amp; spot free to take a sponge bath.Finally on to TRY &amp; get some sleep.  If you like trains, this is the place for you.  Between 2 &amp; 3 in the morning, there were at least 3 that came through. Between the trains &amp; the people outside, it wasn't a restful night.  I tried this place based on the chance that some of the latest reviews were accurate. I really have no clue which Motel 6 they stayed at, but the side of the building I was in was horrible.  I should have driven to the next exit..I realize this is a 'value' hotel, however, this is NOT the Motel 6 of the past.  I've paid about the same in other places and have had far better quality.  I at least expect the place to be clean - especially after it's listed as "refreshed", which to me, means it's been updated to some extent.More</t>
   </si>
   <si>
-    <t>blue m</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d629349-r146816884-Motel_6_Decatur-Decatur_Alabama.html</t>
+  </si>
+  <si>
+    <t>146816884</t>
+  </si>
+  <si>
+    <t>12/05/2012</t>
+  </si>
+  <si>
+    <t>Good Value</t>
+  </si>
+  <si>
+    <t>This hotel was clean and they offered semi truck parking.  When we checked in, the young lady at the counter gave us a good price for the night and it was quick check in time.This hotel is a little dated, but like I stated earlier, it was clean.</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d629349-r134844966-Motel_6_Decatur-Decatur_Alabama.html</t>
+  </si>
+  <si>
+    <t>134844966</t>
+  </si>
+  <si>
+    <t>07/19/2012</t>
+  </si>
+  <si>
+    <t>Not the best experience</t>
+  </si>
+  <si>
+    <t>We stayed here overnight to get a little shut eye, and a little is all that we got. The price was low.The property could really use some work.It is very run down. There were beds and furniture outside of the rooms as if they were airing out. The sheets had holes in them, carpet had not been vacuumed and it was very noisy next to the interstate. The thing that bothered me most was the parking situation. There was very little room to manuever in the parking lot without running over a curb. The guest services were great when we checked in but the stay was terrible.</t>
+  </si>
+  <si>
+    <t>June 2012</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d629349-r130373122-Motel_6_Decatur-Decatur_Alabama.html</t>
@@ -622,15 +859,9 @@
     <t>May 2012</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>Find another motel. We are currently in this one, and here's what we've noticed so far:1. Room reeked of urine.2. Many unsavory folks hanging around, including two women who were dressed rather unusually, shall we say, with 5-inch heels and more perfume than I've worn—total—in my entire life.3. Bathroom door half off of hinges, can't close.4. Chain security lock on door, gone.5. Ice machine broken, went to gas station for ice.6. And smaller PITA things: TV remote is wrong one for TV, doesn't work; no ashtrays in what's supposed to be a smoking room, piles of tarps &amp; stuff on sidewalks (no work going on, just piles), no tissues, general filth. Window looks like it hasn't been cleaned in years, dirty tissues behind nightstand (was looking for outlet for computer), no lightbulb in lamp over bed, just empty socket (plugged in).But hey, it's a bed &amp; we're tired of driving and teh Net works fine so far. And teh guy who's been sitting in his car right outside teh door ever since we got her an hr ago actually looked up and said hello when I said, Hey, how you doin'.More</t>
   </si>
   <si>
-    <t>volfan42</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d629349-r124944060-Motel_6_Decatur-Decatur_Alabama.html</t>
   </si>
   <si>
@@ -652,9 +883,6 @@
     <t>I stayed at this motel during a trip in November.  The price was really what first attracted me as it was about $34 bucks a night and I was traveling on a budget.  When I checked in, the woman at the front desk was very friendly and check in was quick.  While this is an older motel, it was clean.  As might be expected with an older building, there were a few cosmetic flaws.   However, there was no smell, no dirt, and no bugs to be found in the room.  The beds were comfortable and the linens clean as well.   I'm not sure what people expect for $34 a night, but this was fine for the price and I would stay here again.More</t>
   </si>
   <si>
-    <t>J_A_Pop</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d629349-r111814543-Motel_6_Decatur-Decatur_Alabama.html</t>
   </si>
   <si>
@@ -676,7 +904,43 @@
     <t>In May 2011, my family was in Decatur.  While in Decatur, AL, we decided to stay overnight at a hotel.  Using Motel 6's website, we booked a reservation.  Later, when we checked in at the front desk, the clerk assigned us a different room type than what was reserved.  When asked why, the unfriendly teenage boy behind the front desk said that our "guaranteed" room was not available.  The hotel was the WORST that we have ever attempted to stay in.  The one ice machine was working, but the exterior button was missing (To get ice, you had to stick your finger in the hole where the button was supposed to be and press something inside the ice machine.).  The room itself had wires instead of a smoke detector.  The towels were stained, the carpet for the baseboards were piled up in one corner of the room, the walls were dirty, and the wall plate for an outlet was missing.  Also, in order to use the room's phone to call the front desk, you have to use a fingernail to pull up and hold up the "hangup button" on the phone's base (This is the first time that I have ever encountered this type of problem at a motel.).  We went to the front desk to leave the hotel and to ask for a refund.  Before going back to the front desk, I took pictures of our hotel room just...In May 2011, my family was in Decatur.  While in Decatur, AL, we decided to stay overnight at a hotel.  Using Motel 6's website, we booked a reservation.  Later, when we checked in at the front desk, the clerk assigned us a different room type than what was reserved.  When asked why, the unfriendly teenage boy behind the front desk said that our "guaranteed" room was not available.  The hotel was the WORST that we have ever attempted to stay in.  The one ice machine was working, but the exterior button was missing (To get ice, you had to stick your finger in the hole where the button was supposed to be and press something inside the ice machine.).  The room itself had wires instead of a smoke detector.  The towels were stained, the carpet for the baseboards were piled up in one corner of the room, the walls were dirty, and the wall plate for an outlet was missing.  Also, in order to use the room's phone to call the front desk, you have to use a fingernail to pull up and hold up the "hangup button" on the phone's base (This is the first time that I have ever encountered this type of problem at a motel.).  We went to the front desk to leave the hotel and to ask for a refund.  Before going back to the front desk, I took pictures of our hotel room just in case the teenage hotel clerk refused our request for a refund.  Besides the location, I actually cannot think of one positive thing about this motel.  Since I already took pictures of our hotel room, I decided to include them in my review.  I have stayed in Motel 6 locations that were pretty decent.  This was not one of them.More</t>
   </si>
   <si>
-    <t>EdwinCG</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d629349-r106137976-Motel_6_Decatur-Decatur_Alabama.html</t>
+  </si>
+  <si>
+    <t>106137976</t>
+  </si>
+  <si>
+    <t>04/29/2011</t>
+  </si>
+  <si>
+    <t>YUCK!</t>
+  </si>
+  <si>
+    <t>Room smelled as though the carpet had never been cleaned.  The huge roaches seemed to really like it, though.Also, front desk clerk had difficulty processing a refund.</t>
+  </si>
+  <si>
+    <t>April 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d629349-r102494973-Motel_6_Decatur-Decatur_Alabama.html</t>
+  </si>
+  <si>
+    <t>102494973</t>
+  </si>
+  <si>
+    <t>04/01/2011</t>
+  </si>
+  <si>
+    <t>Stay Somewhere Else</t>
+  </si>
+  <si>
+    <t>My fiancé' and I traveled to Alabama to visit family last year. We decided to stay at this Motel 6 on 6th Ave. in Decatur. Out decision was a huge mistake. When we arrived, the owners charged us more for our room than the price initially advertised on the web site. We just said whatever and coughed the difference up, since it was only 6 or so more dollars and still a better bargain than most other motels in the area. We arrived to our room only to find that nothing worked. The refrigerator would not get cold. The free Wi Fi internet was down most of the time. All of the vending machines on the premises were out of order. Even the ice machine was broken when I went to fill our ice bucket. I went to inform the front office, since I could only find once ice machine on the premises. The clerk told me to hand him the bucket  and he would fill it with ice for me from the back of his office. He also said that they had candy for sale through the office when I complained about the other machines not working. I asked to see it and all of it was melted inside of the wrapper...really gross. I told him no thanks and just took the ice. After I got back to our room with the bucket of ice filled by the attendant,...My fiancé' and I traveled to Alabama to visit family last year. We decided to stay at this Motel 6 on 6th Ave. in Decatur. Out decision was a huge mistake. When we arrived, the owners charged us more for our room than the price initially advertised on the web site. We just said whatever and coughed the difference up, since it was only 6 or so more dollars and still a better bargain than most other motels in the area. We arrived to our room only to find that nothing worked. The refrigerator would not get cold. The free Wi Fi internet was down most of the time. All of the vending machines on the premises were out of order. Even the ice machine was broken when I went to fill our ice bucket. I went to inform the front office, since I could only find once ice machine on the premises. The clerk told me to hand him the bucket  and he would fill it with ice for me from the back of his office. He also said that they had candy for sale through the office when I complained about the other machines not working. I asked to see it and all of it was melted inside of the wrapper...really gross. I told him no thanks and just took the ice. After I got back to our room with the bucket of ice filled by the attendant, I noticed it looked somewhat dirty, as if he had put his hands on it. So, I just threw the ice out and went next door to the gas station and bought a bag of ice and some snacks. All in all, our stay was not a good one and I cannot recommend this Motel 6 to other guests/visitors. I have to say, that I did notice some workers present during the daytime hours while we were there, looking like they were renovating some of the rooms. Maybe this place has improved  since we stayed there, but I wouldn't count on it. Even though the bargain price to stay here is tempting, I recommend paying a little extra and staying somewhere else. I will the next time I in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2010</t>
+  </si>
+  <si>
+    <t>My fiancé' and I traveled to Alabama to visit family last year. We decided to stay at this Motel 6 on 6th Ave. in Decatur. Out decision was a huge mistake. When we arrived, the owners charged us more for our room than the price initially advertised on the web site. We just said whatever and coughed the difference up, since it was only 6 or so more dollars and still a better bargain than most other motels in the area. We arrived to our room only to find that nothing worked. The refrigerator would not get cold. The free Wi Fi internet was down most of the time. All of the vending machines on the premises were out of order. Even the ice machine was broken when I went to fill our ice bucket. I went to inform the front office, since I could only find once ice machine on the premises. The clerk told me to hand him the bucket  and he would fill it with ice for me from the back of his office. He also said that they had candy for sale through the office when I complained about the other machines not working. I asked to see it and all of it was melted inside of the wrapper...really gross. I told him no thanks and just took the ice. After I got back to our room with the bucket of ice filled by the attendant,...My fiancé' and I traveled to Alabama to visit family last year. We decided to stay at this Motel 6 on 6th Ave. in Decatur. Out decision was a huge mistake. When we arrived, the owners charged us more for our room than the price initially advertised on the web site. We just said whatever and coughed the difference up, since it was only 6 or so more dollars and still a better bargain than most other motels in the area. We arrived to our room only to find that nothing worked. The refrigerator would not get cold. The free Wi Fi internet was down most of the time. All of the vending machines on the premises were out of order. Even the ice machine was broken when I went to fill our ice bucket. I went to inform the front office, since I could only find once ice machine on the premises. The clerk told me to hand him the bucket  and he would fill it with ice for me from the back of his office. He also said that they had candy for sale through the office when I complained about the other machines not working. I asked to see it and all of it was melted inside of the wrapper...really gross. I told him no thanks and just took the ice. After I got back to our room with the bucket of ice filled by the attendant, I noticed it looked somewhat dirty, as if he had put his hands on it. So, I just threw the ice out and went next door to the gas station and bought a bag of ice and some snacks. All in all, our stay was not a good one and I cannot recommend this Motel 6 to other guests/visitors. I have to say, that I did notice some workers present during the daytime hours while we were there, looking like they were renovating some of the rooms. Maybe this place has improved  since we stayed there, but I wouldn't count on it. Even though the bargain price to stay here is tempting, I recommend paying a little extra and staying somewhere else. I will the next time I in the area.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d629349-r71288197-Motel_6_Decatur-Decatur_Alabama.html</t>
@@ -695,9 +959,6 @@
   </si>
   <si>
     <t>July 2010</t>
-  </si>
-  <si>
-    <t>s2pigeau</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d629349-r35140604-Motel_6_Decatur-Decatur_Alabama.html</t>
@@ -1220,48 +1481,40 @@
       <c r="A2" t="n">
         <v>49002</v>
       </c>
-      <c r="B2" t="n">
-        <v>169352</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
         <v>43</v>
       </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>45</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>46</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
-        <v>51</v>
-      </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
-      <c r="N2" t="s">
-        <v>52</v>
-      </c>
-      <c r="O2" t="s">
-        <v>53</v>
-      </c>
+      <c r="N2" t="s"/>
+      <c r="O2" t="s"/>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
@@ -1271,57 +1524,57 @@
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s"/>
-      <c r="X2" t="s"/>
+      <c r="W2" t="s">
+        <v>51</v>
+      </c>
+      <c r="X2" t="s">
+        <v>52</v>
+      </c>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>49002</v>
       </c>
-      <c r="B3" t="n">
-        <v>10087</v>
-      </c>
-      <c r="C3" t="s">
-        <v>55</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
         <v>56</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>58</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
         <v>59</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>60</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="s">
-        <v>61</v>
-      </c>
-      <c r="O3" t="s">
-        <v>62</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1329,17 +1582,21 @@
         <v>3</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s"/>
-      <c r="X3" t="s"/>
+      <c r="W3" t="s">
+        <v>61</v>
+      </c>
+      <c r="X3" t="s">
+        <v>62</v>
+      </c>
       <c r="Y3" t="s">
         <v>63</v>
       </c>
@@ -1348,47 +1605,43 @@
       <c r="A4" t="n">
         <v>49002</v>
       </c>
-      <c r="B4" t="n">
-        <v>169353</v>
-      </c>
-      <c r="C4" t="s">
-        <v>64</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
         <v>65</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>66</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>67</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>68</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
         <v>69</v>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="s">
-        <v>61</v>
-      </c>
       <c r="O4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1402,119 +1655,113 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>49002</v>
       </c>
-      <c r="B5" t="n">
-        <v>169354</v>
-      </c>
-      <c r="C5" t="s">
-        <v>71</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
         <v>72</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>73</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>74</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>75</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
         <v>76</v>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>77</v>
-      </c>
-      <c r="O5" t="s">
-        <v>78</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
-      <c r="R5" t="s"/>
-      <c r="S5" t="s"/>
+      <c r="R5" t="n">
+        <v>3</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
       <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s">
-        <v>79</v>
-      </c>
-      <c r="X5" t="s">
-        <v>80</v>
-      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>49002</v>
       </c>
-      <c r="B6" t="n">
-        <v>169355</v>
-      </c>
-      <c r="C6" t="s">
-        <v>82</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>80</v>
+      </c>
+      <c r="J6" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" t="s">
         <v>83</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>76</v>
+      </c>
+      <c r="O6" t="s">
         <v>84</v>
-      </c>
-      <c r="J6" t="s">
-        <v>85</v>
-      </c>
-      <c r="K6" t="s">
-        <v>86</v>
-      </c>
-      <c r="L6" t="s">
-        <v>87</v>
-      </c>
-      <c r="M6" t="n">
-        <v>2</v>
-      </c>
-      <c r="N6" t="s">
-        <v>88</v>
-      </c>
-      <c r="O6" t="s">
-        <v>62</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1525,142 +1772,120 @@
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s">
-        <v>89</v>
-      </c>
-      <c r="X6" t="s">
-        <v>90</v>
-      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>49002</v>
       </c>
-      <c r="B7" t="n">
-        <v>169356</v>
-      </c>
-      <c r="C7" t="s">
-        <v>92</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
         <v>46</v>
       </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
       <c r="I7" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="J7" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="K7" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="L7" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="O7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="P7" t="s"/>
-      <c r="Q7" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>1</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s">
-        <v>99</v>
-      </c>
-      <c r="X7" t="s">
-        <v>100</v>
-      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>49002</v>
       </c>
-      <c r="B8" t="n">
-        <v>11469</v>
-      </c>
-      <c r="C8" t="s">
-        <v>102</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
         <v>46</v>
       </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
       <c r="I8" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="J8" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="K8" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="L8" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="O8" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="n">
-        <v>1</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1668,494 +1893,434 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>49002</v>
       </c>
-      <c r="B9" t="n">
-        <v>169357</v>
-      </c>
-      <c r="C9" t="s">
-        <v>109</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
         <v>46</v>
       </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
       <c r="I9" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="J9" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="K9" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="L9" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="M9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="O9" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="P9" t="s"/>
-      <c r="Q9" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>4</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s"/>
-      <c r="X9" t="s"/>
+      <c r="W9" t="s">
+        <v>104</v>
+      </c>
+      <c r="X9" t="s">
+        <v>105</v>
+      </c>
       <c r="Y9" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>49002</v>
       </c>
-      <c r="B10" t="n">
-        <v>169358</v>
-      </c>
-      <c r="C10" t="s">
-        <v>115</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
         <v>46</v>
       </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
       <c r="I10" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="J10" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="K10" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="L10" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="s"/>
-      <c r="O10" t="s"/>
-      <c r="P10" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1</v>
-      </c>
-      <c r="R10" t="n">
-        <v>3</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>112</v>
+      </c>
+      <c r="O10" t="s">
+        <v>77</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>1</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="X10" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="Y10" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>49002</v>
       </c>
-      <c r="B11" t="n">
-        <v>169359</v>
-      </c>
-      <c r="C11" t="s">
-        <v>124</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
         <v>46</v>
       </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
       <c r="I11" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="J11" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="K11" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="L11" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
-      <c r="N11" t="s"/>
-      <c r="O11" t="s"/>
-      <c r="P11" t="n">
-        <v>3</v>
-      </c>
+      <c r="N11" t="s">
+        <v>121</v>
+      </c>
+      <c r="O11" t="s">
+        <v>97</v>
+      </c>
+      <c r="P11" t="s"/>
       <c r="Q11" t="n">
         <v>1</v>
       </c>
-      <c r="R11" t="n">
-        <v>3</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1</v>
-      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s"/>
-      <c r="X11" t="s"/>
+      <c r="W11" t="s">
+        <v>122</v>
+      </c>
+      <c r="X11" t="s">
+        <v>123</v>
+      </c>
       <c r="Y11" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>49002</v>
       </c>
-      <c r="B12" t="n">
-        <v>169360</v>
-      </c>
-      <c r="C12" t="s">
-        <v>130</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
         <v>46</v>
       </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
       <c r="I12" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="J12" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="K12" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="L12" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="O12" t="s">
-        <v>62</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>2</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s"/>
-      <c r="X12" t="s"/>
+      <c r="W12" t="s">
+        <v>131</v>
+      </c>
+      <c r="X12" t="s">
+        <v>132</v>
+      </c>
       <c r="Y12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>49002</v>
       </c>
-      <c r="B13" t="n">
-        <v>10052</v>
-      </c>
-      <c r="C13" t="s">
-        <v>137</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
+        <v>134</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>135</v>
+      </c>
+      <c r="J13" t="s">
+        <v>136</v>
+      </c>
+      <c r="K13" t="s">
+        <v>137</v>
+      </c>
+      <c r="L13" t="s">
         <v>138</v>
       </c>
-      <c r="G13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" t="s">
-        <v>139</v>
-      </c>
-      <c r="J13" t="s">
-        <v>140</v>
-      </c>
-      <c r="K13" t="s">
-        <v>141</v>
-      </c>
-      <c r="L13" t="s">
-        <v>142</v>
-      </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="O13" t="s">
-        <v>70</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="P13" t="s"/>
       <c r="Q13" t="n">
-        <v>1</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R13" t="s"/>
       <c r="S13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s">
-        <v>144</v>
-      </c>
-      <c r="X13" t="s">
-        <v>145</v>
-      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>49002</v>
       </c>
-      <c r="B14" t="n">
-        <v>169361</v>
-      </c>
-      <c r="C14" t="s">
-        <v>147</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
         <v>46</v>
       </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
       <c r="I14" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="J14" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="K14" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="L14" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="M14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="O14" t="s">
-        <v>62</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="P14" t="s"/>
       <c r="Q14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R14" t="n">
-        <v>3</v>
-      </c>
-      <c r="S14" t="n">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s">
-        <v>154</v>
-      </c>
-      <c r="X14" t="s">
-        <v>155</v>
-      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>49002</v>
       </c>
-      <c r="B15" t="n">
-        <v>47213</v>
-      </c>
-      <c r="C15" t="s">
-        <v>157</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
         <v>46</v>
       </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
       <c r="I15" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="J15" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="K15" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="L15" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="M15" t="n">
         <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="O15" t="s">
-        <v>70</v>
-      </c>
-      <c r="P15" t="n">
-        <v>3</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="P15" t="s"/>
       <c r="Q15" t="n">
-        <v>2</v>
-      </c>
-      <c r="R15" t="n">
-        <v>4</v>
-      </c>
-      <c r="S15" t="n">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -2163,45 +2328,41 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>49002</v>
       </c>
-      <c r="B16" t="n">
-        <v>169362</v>
-      </c>
-      <c r="C16" t="s">
-        <v>164</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
         <v>46</v>
       </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
       <c r="I16" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="J16" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="K16" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="L16" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="M16" t="n">
         <v>1</v>
@@ -2209,13 +2370,13 @@
       <c r="N16" t="s"/>
       <c r="O16" t="s"/>
       <c r="P16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
       </c>
       <c r="R16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S16" t="n">
         <v>1</v>
@@ -2227,211 +2388,183 @@
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s"/>
-      <c r="X16" t="s"/>
+      <c r="W16" t="s">
+        <v>155</v>
+      </c>
+      <c r="X16" t="s">
+        <v>156</v>
+      </c>
       <c r="Y16" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>49002</v>
       </c>
-      <c r="B17" t="n">
-        <v>169363</v>
-      </c>
-      <c r="C17" t="s">
-        <v>170</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
         <v>46</v>
       </c>
-      <c r="H17" t="s">
-        <v>47</v>
-      </c>
       <c r="I17" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="J17" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="K17" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="L17" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="O17" t="s">
-        <v>62</v>
-      </c>
-      <c r="P17" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>3</v>
-      </c>
-      <c r="R17" t="n">
-        <v>4</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>3</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>49002</v>
       </c>
-      <c r="B18" t="n">
-        <v>169364</v>
-      </c>
-      <c r="C18" t="s">
-        <v>178</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
         <v>46</v>
       </c>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
       <c r="I18" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="J18" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="K18" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="L18" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
-      <c r="N18" t="s"/>
-      <c r="O18" t="s"/>
-      <c r="P18" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1</v>
-      </c>
+      <c r="N18" t="s">
+        <v>163</v>
+      </c>
+      <c r="O18" t="s">
+        <v>97</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="n">
-        <v>1</v>
-      </c>
+      <c r="U18" t="s"/>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>49002</v>
       </c>
-      <c r="B19" t="n">
-        <v>5769</v>
-      </c>
-      <c r="C19" t="s">
-        <v>185</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
         <v>46</v>
       </c>
-      <c r="H19" t="s">
-        <v>47</v>
-      </c>
       <c r="I19" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="J19" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="K19" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="L19" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
-      <c r="N19" t="s">
-        <v>191</v>
-      </c>
-      <c r="O19" t="s">
-        <v>78</v>
-      </c>
+      <c r="N19" t="s"/>
+      <c r="O19" t="s"/>
       <c r="P19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
       </c>
       <c r="R19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S19" t="n">
         <v>1</v>
       </c>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2439,70 +2572,66 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>49002</v>
       </c>
-      <c r="B20" t="n">
-        <v>169365</v>
-      </c>
-      <c r="C20" t="s">
-        <v>193</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
         <v>46</v>
       </c>
-      <c r="H20" t="s">
-        <v>47</v>
-      </c>
       <c r="I20" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="J20" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="K20" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="L20" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="O20" t="s">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="P20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q20" t="n">
         <v>1</v>
       </c>
       <c r="R20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S20" t="n">
         <v>1</v>
       </c>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2510,131 +2639,131 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>49002</v>
       </c>
-      <c r="B21" t="n">
-        <v>169366</v>
-      </c>
-      <c r="C21" t="s">
-        <v>202</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
         <v>46</v>
       </c>
-      <c r="H21" t="s">
-        <v>47</v>
-      </c>
       <c r="I21" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="J21" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="K21" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="L21" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="M21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="O21" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="P21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s"/>
-      <c r="X21" t="s"/>
+      <c r="W21" t="s">
+        <v>189</v>
+      </c>
+      <c r="X21" t="s">
+        <v>190</v>
+      </c>
       <c r="Y21" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>49002</v>
       </c>
-      <c r="B22" t="n">
-        <v>169367</v>
-      </c>
-      <c r="C22" t="s">
-        <v>210</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
         <v>46</v>
       </c>
-      <c r="H22" t="s">
-        <v>47</v>
-      </c>
       <c r="I22" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="J22" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="K22" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="L22" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="O22" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="P22" t="n">
         <v>1</v>
       </c>
-      <c r="Q22" t="s"/>
-      <c r="R22" t="s"/>
+      <c r="Q22" t="n">
+        <v>1</v>
+      </c>
+      <c r="R22" t="n">
+        <v>3</v>
+      </c>
       <c r="S22" t="n">
         <v>1</v>
       </c>
@@ -2645,126 +2774,134 @@
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s"/>
-      <c r="X22" t="s"/>
+      <c r="W22" t="s">
+        <v>198</v>
+      </c>
+      <c r="X22" t="s">
+        <v>199</v>
+      </c>
       <c r="Y22" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>49002</v>
       </c>
-      <c r="B23" t="n">
-        <v>169368</v>
-      </c>
-      <c r="C23" t="s">
-        <v>218</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
         <v>46</v>
       </c>
-      <c r="H23" t="s">
-        <v>47</v>
-      </c>
       <c r="I23" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="J23" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="K23" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="L23" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="O23" t="s">
-        <v>78</v>
-      </c>
-      <c r="P23" t="s"/>
-      <c r="Q23" t="s"/>
-      <c r="R23" t="s"/>
-      <c r="S23" t="s"/>
+        <v>84</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1</v>
+      </c>
       <c r="T23" t="s"/>
-      <c r="U23" t="s"/>
+      <c r="U23" t="n">
+        <v>1</v>
+      </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>49002</v>
       </c>
-      <c r="B24" t="n">
-        <v>169369</v>
-      </c>
-      <c r="C24" t="s">
-        <v>225</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
         <v>46</v>
       </c>
-      <c r="H24" t="s">
-        <v>47</v>
-      </c>
       <c r="I24" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="J24" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="K24" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="L24" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="M24" t="n">
         <v>2</v>
       </c>
       <c r="N24" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
       <c r="O24" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="P24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q24" t="n">
-        <v>1</v>
-      </c>
-      <c r="R24" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="R24" t="n">
+        <v>3</v>
+      </c>
       <c r="S24" t="n">
         <v>2</v>
       </c>
@@ -2775,10 +2912,1058 @@
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s"/>
-      <c r="X24" t="s"/>
+      <c r="W24" t="s">
+        <v>212</v>
+      </c>
+      <c r="X24" t="s">
+        <v>213</v>
+      </c>
       <c r="Y24" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>49002</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>215</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>216</v>
+      </c>
+      <c r="J25" t="s">
+        <v>217</v>
+      </c>
+      <c r="K25" t="s">
+        <v>218</v>
+      </c>
+      <c r="L25" t="s">
+        <v>219</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="s">
+        <v>206</v>
+      </c>
+      <c r="O25" t="s">
+        <v>84</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2</v>
+      </c>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="n">
+        <v>2</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>3</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>49002</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>221</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>222</v>
+      </c>
+      <c r="J26" t="s">
+        <v>223</v>
+      </c>
+      <c r="K26" t="s">
+        <v>224</v>
+      </c>
+      <c r="L26" t="s">
+        <v>225</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s"/>
+      <c r="O26" t="s"/>
+      <c r="P26" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>1</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>49002</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>226</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>227</v>
+      </c>
+      <c r="J27" t="s">
+        <v>228</v>
+      </c>
+      <c r="K27" t="s">
+        <v>229</v>
+      </c>
+      <c r="L27" t="s">
         <v>230</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s"/>
+      <c r="O27" t="s"/>
+      <c r="P27" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1</v>
+      </c>
+      <c r="R27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>1</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>49002</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>232</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>233</v>
+      </c>
+      <c r="J28" t="s">
+        <v>234</v>
+      </c>
+      <c r="K28" t="s">
+        <v>235</v>
+      </c>
+      <c r="L28" t="s">
+        <v>236</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>237</v>
+      </c>
+      <c r="O28" t="s">
+        <v>77</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1</v>
+      </c>
+      <c r="R28" t="n">
+        <v>3</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>1</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>49002</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>238</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>239</v>
+      </c>
+      <c r="J29" t="s">
+        <v>240</v>
+      </c>
+      <c r="K29" t="s">
+        <v>241</v>
+      </c>
+      <c r="L29" t="s">
+        <v>242</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>237</v>
+      </c>
+      <c r="O29" t="s">
+        <v>77</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>3</v>
+      </c>
+      <c r="R29" t="n">
+        <v>4</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>3</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>49002</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>244</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>245</v>
+      </c>
+      <c r="J30" t="s">
+        <v>246</v>
+      </c>
+      <c r="K30" t="s">
+        <v>247</v>
+      </c>
+      <c r="L30" t="s">
+        <v>248</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s"/>
+      <c r="O30" t="s"/>
+      <c r="P30" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>1</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>49002</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>250</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>251</v>
+      </c>
+      <c r="J31" t="s">
+        <v>252</v>
+      </c>
+      <c r="K31" t="s">
+        <v>253</v>
+      </c>
+      <c r="L31" t="s">
+        <v>254</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>255</v>
+      </c>
+      <c r="O31" t="s">
+        <v>97</v>
+      </c>
+      <c r="P31" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1</v>
+      </c>
+      <c r="R31" t="n">
+        <v>2</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>2</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>49002</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>257</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>258</v>
+      </c>
+      <c r="J32" t="s">
+        <v>259</v>
+      </c>
+      <c r="K32" t="s">
+        <v>260</v>
+      </c>
+      <c r="L32" t="s">
+        <v>261</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>262</v>
+      </c>
+      <c r="O32" t="s">
+        <v>97</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>49002</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>263</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>264</v>
+      </c>
+      <c r="J33" t="s">
+        <v>265</v>
+      </c>
+      <c r="K33" t="s">
+        <v>266</v>
+      </c>
+      <c r="L33" t="s">
+        <v>267</v>
+      </c>
+      <c r="M33" t="n">
+        <v>2</v>
+      </c>
+      <c r="N33" t="s">
+        <v>268</v>
+      </c>
+      <c r="O33" t="s">
+        <v>77</v>
+      </c>
+      <c r="P33" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>2</v>
+      </c>
+      <c r="R33" t="n">
+        <v>2</v>
+      </c>
+      <c r="S33" t="n">
+        <v>2</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>49002</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>269</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>270</v>
+      </c>
+      <c r="J34" t="s">
+        <v>271</v>
+      </c>
+      <c r="K34" t="s">
+        <v>272</v>
+      </c>
+      <c r="L34" t="s">
+        <v>273</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s">
+        <v>274</v>
+      </c>
+      <c r="O34" t="s">
+        <v>164</v>
+      </c>
+      <c r="P34" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1</v>
+      </c>
+      <c r="R34" t="n">
+        <v>2</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>3</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>49002</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>276</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>277</v>
+      </c>
+      <c r="J35" t="s">
+        <v>278</v>
+      </c>
+      <c r="K35" t="s">
+        <v>279</v>
+      </c>
+      <c r="L35" t="s">
+        <v>280</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>281</v>
+      </c>
+      <c r="O35" t="s">
+        <v>97</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>4</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="n">
+        <v>4</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>49002</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>283</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>284</v>
+      </c>
+      <c r="J36" t="s">
+        <v>285</v>
+      </c>
+      <c r="K36" t="s">
+        <v>286</v>
+      </c>
+      <c r="L36" t="s">
+        <v>287</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
+        <v>288</v>
+      </c>
+      <c r="O36" t="s">
+        <v>84</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="n">
+        <v>1</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>1</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>49002</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>290</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>291</v>
+      </c>
+      <c r="J37" t="s">
+        <v>292</v>
+      </c>
+      <c r="K37" t="s">
+        <v>293</v>
+      </c>
+      <c r="L37" t="s">
+        <v>294</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="s">
+        <v>295</v>
+      </c>
+      <c r="O37" t="s">
+        <v>97</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1</v>
+      </c>
+      <c r="R37" t="n">
+        <v>2</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>1</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>49002</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>296</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>297</v>
+      </c>
+      <c r="J38" t="s">
+        <v>298</v>
+      </c>
+      <c r="K38" t="s">
+        <v>299</v>
+      </c>
+      <c r="L38" t="s">
+        <v>300</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" t="s">
+        <v>301</v>
+      </c>
+      <c r="O38" t="s">
+        <v>77</v>
+      </c>
+      <c r="P38" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>1</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1</v>
+      </c>
+      <c r="S38" t="n">
+        <v>2</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>1</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>49002</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>303</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>304</v>
+      </c>
+      <c r="J39" t="s">
+        <v>305</v>
+      </c>
+      <c r="K39" t="s">
+        <v>306</v>
+      </c>
+      <c r="L39" t="s">
+        <v>307</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s">
+        <v>308</v>
+      </c>
+      <c r="O39" t="s">
+        <v>97</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>49002</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>309</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>310</v>
+      </c>
+      <c r="J40" t="s">
+        <v>311</v>
+      </c>
+      <c r="K40" t="s">
+        <v>312</v>
+      </c>
+      <c r="L40" t="s">
+        <v>313</v>
+      </c>
+      <c r="M40" t="n">
+        <v>2</v>
+      </c>
+      <c r="N40" t="s">
+        <v>314</v>
+      </c>
+      <c r="O40" t="s">
+        <v>77</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1</v>
+      </c>
+      <c r="R40" t="s"/>
+      <c r="S40" t="n">
+        <v>2</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>2</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>313</v>
       </c>
     </row>
   </sheetData>
